--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -739,6 +739,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,7 +769,6 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1042,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1068,11 +1068,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1081,14 +1081,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1135,10 +1135,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="48">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1149,16 +1149,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1319,7 +1319,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1428,7 +1428,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="39" t="s">
         <v>43</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="39" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="39" t="s">
         <v>43</v>
       </c>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1677,14 +1677,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1713,14 +1713,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39" t="s">
         <v>45</v>
       </c>
@@ -1784,14 +1784,14 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="52" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="39" t="s">
         <v>45</v>
       </c>
@@ -1843,14 +1843,14 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="52" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="39" t="s">
         <v>45</v>
       </c>
@@ -1902,14 +1902,14 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="52" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="39" t="s">
         <v>45</v>
       </c>
@@ -1956,14 +1956,14 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="52" t="s">
+      <c r="B61" s="45"/>
+      <c r="C61" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="39" t="s">
         <v>45</v>
       </c>
@@ -2010,14 +2010,14 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="52" t="s">
+      <c r="B66" s="45"/>
+      <c r="C66" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -2045,14 +2045,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2081,14 +2081,1005 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1">
+      <c r="B1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42857</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42857</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="48">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="50">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42857</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="44">
+        <f>E2</f>
+        <v>42857</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="45"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42858</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="44">
+        <f>B7+1</f>
+        <v>42858</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="44"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="45"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42859</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="44">
+        <f>B12+1</f>
+        <v>42859</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42860</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="44">
+        <f>B17+1</f>
+        <v>42860</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42861</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="44">
+        <f>B22+1</f>
+        <v>42861</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42862</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="44">
+        <f>B27+1</f>
+        <v>42862</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42863</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="44">
+        <f>B32+1</f>
+        <v>42863</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42864</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42864</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="44">
+        <f>B37+1</f>
+        <v>42864</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42865</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="44">
+        <f>B44+1</f>
+        <v>42865</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42866</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="44">
+        <f>B49+1</f>
+        <v>42866</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42867</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="44">
+        <f>B54+1</f>
+        <v>42867</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42868</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="44">
+        <f>B59+1</f>
+        <v>42868</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42869</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="44">
+        <f>B64+1</f>
+        <v>42869</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42870</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="44">
+        <f>B69+1</f>
+        <v>42870</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -2125,997 +3116,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:E74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38">
-        <f>C3</f>
-        <v>42857</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42857</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>18</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="30">
-        <v>5</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="47">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="49">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="7">
-        <f>B7</f>
-        <v>42857</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="35" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="35">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="35">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="35">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="35">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="35">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="35">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="43">
-        <f>E2</f>
-        <v>42857</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="G7" s="35">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="35">
-        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="35">
-        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="35">
-        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="35">
-        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="35">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="35">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="35">
-        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="35">
-        <f t="shared" si="2"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="2"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="2"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="2"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="35">
-        <f t="shared" si="2"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="2"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="2"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="2"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="2"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="3"/>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="2"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="2"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="7">
-        <f>B12</f>
-        <v>42858</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="43">
-        <f>B7+1</f>
-        <v>42858</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="43"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7">
-        <f>B17</f>
-        <v>42859</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="43">
-        <f>B12+1</f>
-        <v>42859</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="7">
-        <f>B22</f>
-        <v>42860</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="43">
-        <f>B17+1</f>
-        <v>42860</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="7">
-        <f>B27</f>
-        <v>42861</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="43">
-        <f>B22+1</f>
-        <v>42861</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="7">
-        <f>B32</f>
-        <v>42862</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="43">
-        <f>B27+1</f>
-        <v>42862</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="7">
-        <f>B37</f>
-        <v>42863</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="43">
-        <f>B32+1</f>
-        <v>42863</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="21">
-        <f>C3+7</f>
-        <v>42864</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="7">
-        <f>B44</f>
-        <v>42864</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="43">
-        <f>B37+1</f>
-        <v>42864</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7">
-        <f>B49</f>
-        <v>42865</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="43">
-        <f>B44+1</f>
-        <v>42865</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7">
-        <f>B54</f>
-        <v>42866</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="43">
-        <f>B49+1</f>
-        <v>42866</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="7">
-        <f>B59</f>
-        <v>42867</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="43">
-        <f>B54+1</f>
-        <v>42867</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="7">
-        <f>B64</f>
-        <v>42868</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="43">
-        <f>B59+1</f>
-        <v>42868</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="7">
-        <f>B69</f>
-        <v>42869</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="43">
-        <f>B64+1</f>
-        <v>42869</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="7">
-        <f>B74</f>
-        <v>42870</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="43">
-        <f>B69+1</f>
-        <v>42870</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
@@ -3136,11 +3136,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3149,14 +3149,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3203,10 +3203,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="48">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3217,16 +3217,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3381,7 +3381,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3490,7 +3490,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3525,7 +3525,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -3623,14 +3623,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="39" t="s">
         <v>34</v>
       </c>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -3709,14 +3709,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -3749,14 +3749,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -3807,14 +3807,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="39" t="s">
         <v>29</v>
       </c>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="39" t="s">
         <v>29</v>
       </c>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="39" t="s">
         <v>29</v>
       </c>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -4043,14 +4043,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -4079,20 +4079,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4105,13 +4112,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4143,11 +4143,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -4156,14 +4156,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4210,10 +4210,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="48">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4224,16 +4224,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4394,7 +4394,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4503,7 +4503,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="12"/>
       <c r="D13" s="39" t="s">
         <v>30</v>
@@ -4546,7 +4546,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40" t="s">
@@ -4619,7 +4619,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
@@ -4663,7 +4663,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="40" t="s">
@@ -4707,7 +4707,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -4736,14 +4736,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -4772,14 +4772,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -4830,14 +4830,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -4877,14 +4877,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="13"/>
       <c r="D50" s="10"/>
       <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -4924,14 +4924,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -4966,14 +4966,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -5008,14 +5008,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -5044,14 +5044,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -5080,20 +5080,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5106,13 +5113,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 20-21" sheetId="9" r:id="rId1"/>
-    <sheet name="Week 18-19" sheetId="8" r:id="rId2"/>
-    <sheet name="Week 14-15" sheetId="6" r:id="rId3"/>
-    <sheet name="Week 16-17" sheetId="7" r:id="rId4"/>
+    <sheet name="Week 22-23" sheetId="10" r:id="rId1"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId2"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId3"/>
+    <sheet name="Week 14-15" sheetId="6" r:id="rId4"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 14-15'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 16-17'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 18-19'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 14-15'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 16-17'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 22-23'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="47">
   <si>
     <t>MORNING</t>
   </si>
@@ -190,15 +192,15 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>平顶山银行接口集成技术支持</t>
+    <t>金城银行无纸化系统改造实施</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>焦作中旅银行接口集成技术支持</t>
+    <t>无纸化3649版本测试</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>金城银行实施</t>
+    <t>配合焦作中旅&amp;平顶山银行接口集成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -769,6 +771,7 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1042,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1061,7 +1064,7 @@
     <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="32.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
     <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.125" style="1"/>
@@ -1094,7 +1097,7 @@
       </c>
       <c r="E2" s="38">
         <f>C3</f>
-        <v>42870</v>
+        <v>42884</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>20</v>
@@ -1116,12 +1119,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="21">
-        <v>42870</v>
+        <v>42884</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="23">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="26"/>
@@ -1199,7 +1202,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="7">
         <f>B7</f>
-        <v>42870</v>
+        <v>42884</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
@@ -1239,17 +1242,11 @@
       <c r="A7" s="2"/>
       <c r="B7" s="44">
         <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>41</v>
-      </c>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -1370,7 +1367,7 @@
         <v>42885</v>
       </c>
       <c r="J10" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(I10="","",IF(MONTH(I10+1)&lt;&gt;MONTH(I10),"",I10+1))</f>
         <v>42886</v>
       </c>
       <c r="K10" s="35" t="str">
@@ -1391,7 +1388,7 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="7">
         <f>B12</f>
-        <v>42871</v>
+        <v>42885</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="8"/>
@@ -1430,17 +1427,11 @@
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="44">
         <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>42</v>
-      </c>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -1453,15 +1444,9 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="44"/>
-      <c r="C13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="G13" s="36" t="s">
         <v>15</v>
       </c>
@@ -1509,10 +1494,10 @@
       <c r="A16" s="2"/>
       <c r="B16" s="7">
         <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
@@ -1523,16 +1508,16 @@
       <c r="A17" s="2"/>
       <c r="B17" s="44">
         <f>B12+1</f>
-        <v>42872</v>
+        <v>42886</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -1540,22 +1525,28 @@
       <c r="A18" s="2"/>
       <c r="B18" s="44"/>
       <c r="C18" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="45"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="3"/>
@@ -1563,9 +1554,9 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="7">
         <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="53"/>
       <c r="D21" s="8"/>
       <c r="E21" s="14"/>
     </row>
@@ -1573,37 +1564,43 @@
       <c r="A22" s="2"/>
       <c r="B22" s="44">
         <f>B17+1</f>
-        <v>42873</v>
+        <v>42887</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="44"/>
       <c r="C23" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="45"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="3"/>
@@ -1611,9 +1608,9 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="7">
         <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="11"/>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="53"/>
       <c r="D26" s="8"/>
       <c r="E26" s="14"/>
     </row>
@@ -1621,37 +1618,43 @@
       <c r="A27" s="2"/>
       <c r="B27" s="44">
         <f>B22+1</f>
-        <v>42874</v>
+        <v>42888</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="44"/>
       <c r="C28" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="45"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="3"/>
@@ -1659,7 +1662,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="7">
         <f>B32</f>
-        <v>42875</v>
+        <v>42889</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="8"/>
@@ -1669,7 +1672,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="44">
         <f>B27+1</f>
-        <v>42875</v>
+        <v>42889</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -1695,7 +1698,7 @@
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="7">
         <f>B37</f>
-        <v>42876</v>
+        <v>42890</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="8"/>
@@ -1705,7 +1708,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="44">
         <f>B32+1</f>
-        <v>42876</v>
+        <v>42890</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -1733,21 +1736,15 @@
       <c r="B41" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="21">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
+      <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="23">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="7">
         <f>B44</f>
-        <v>42877</v>
+        <v>42891</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="8"/>
@@ -1757,43 +1754,25 @@
       <c r="A44" s="2"/>
       <c r="B44" s="44">
         <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="44"/>
-      <c r="C45" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="45"/>
-      <c r="C46" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2"/>
@@ -1806,7 +1785,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="7">
         <f>B49</f>
-        <v>42878</v>
+        <v>42892</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="8"/>
@@ -1816,43 +1795,25 @@
       <c r="A49" s="2"/>
       <c r="B49" s="44">
         <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="44"/>
-      <c r="C50" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="45"/>
-      <c r="C51" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="2"/>
@@ -1865,7 +1826,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="7">
         <f>B54</f>
-        <v>42879</v>
+        <v>42893</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
@@ -1875,43 +1836,25 @@
       <c r="A54" s="2"/>
       <c r="B54" s="44">
         <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="44"/>
-      <c r="C55" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="45"/>
-      <c r="C56" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="3"/>
@@ -1919,7 +1862,7 @@
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="7">
         <f>B59</f>
-        <v>42880</v>
+        <v>42894</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="8"/>
@@ -1929,43 +1872,25 @@
       <c r="A59" s="2"/>
       <c r="B59" s="44">
         <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="44"/>
-      <c r="C60" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="45"/>
-      <c r="C61" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="3"/>
@@ -1973,7 +1898,7 @@
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="7">
         <f>B64</f>
-        <v>42881</v>
+        <v>42895</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="8"/>
@@ -1983,43 +1908,25 @@
       <c r="A64" s="2"/>
       <c r="B64" s="44">
         <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="44"/>
-      <c r="C65" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="45"/>
-      <c r="C66" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="3"/>
@@ -2027,7 +1934,7 @@
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="7">
         <f>B69</f>
-        <v>42882</v>
+        <v>42896</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
@@ -2037,25 +1944,25 @@
       <c r="A69" s="2"/>
       <c r="B69" s="44">
         <f>B64+1</f>
-        <v>42882</v>
+        <v>42896</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="15"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="44"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="45"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="3"/>
@@ -2063,7 +1970,7 @@
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="7">
         <f>B74</f>
-        <v>42883</v>
+        <v>42897</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="8"/>
@@ -2073,7 +1980,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="44">
         <f>B69+1</f>
-        <v>42883</v>
+        <v>42897</v>
       </c>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -2129,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:E74"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2171,7 +2078,7 @@
       </c>
       <c r="E2" s="38">
         <f>C3</f>
-        <v>42857</v>
+        <v>42870</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>20</v>
@@ -2193,12 +2100,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="21">
-        <v>42857</v>
+        <v>42870</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="23">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="26"/>
@@ -2276,7 +2183,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="7">
         <f>B7</f>
-        <v>42857</v>
+        <v>42870</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
@@ -2316,15 +2223,17 @@
       <c r="A7" s="2"/>
       <c r="B7" s="44">
         <f>E2</f>
-        <v>42857</v>
+        <v>42870</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="39"/>
+        <v>41</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2466,7 +2375,7 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="7">
         <f>B12</f>
-        <v>42858</v>
+        <v>42871</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="8"/>
@@ -2505,16 +2414,16 @@
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="44">
         <f>B7+1</f>
-        <v>42858</v>
+        <v>42871</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -2528,9 +2437,15 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="44"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="G13" s="36" t="s">
         <v>15</v>
       </c>
@@ -2578,7 +2493,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="7">
         <f>B17</f>
-        <v>42859</v>
+        <v>42872</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="8"/>
@@ -2592,25 +2507,31 @@
       <c r="A17" s="2"/>
       <c r="B17" s="44">
         <f>B12+1</f>
-        <v>42859</v>
+        <v>42872</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2626,7 +2547,7 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="7">
         <f>B22</f>
-        <v>42860</v>
+        <v>42873</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="8"/>
@@ -2636,24 +2557,30 @@
       <c r="A22" s="2"/>
       <c r="B22" s="44">
         <f>B17+1</f>
-        <v>42860</v>
+        <v>42873</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
@@ -2668,7 +2595,7 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="7">
         <f>B27</f>
-        <v>42861</v>
+        <v>42874</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
@@ -2678,18 +2605,30 @@
       <c r="A27" s="2"/>
       <c r="B27" s="44">
         <f>B22+1</f>
-        <v>42861</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="C28" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
@@ -2704,7 +2643,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="7">
         <f>B32</f>
-        <v>42862</v>
+        <v>42875</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="8"/>
@@ -2714,7 +2653,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="44">
         <f>B27+1</f>
-        <v>42862</v>
+        <v>42875</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -2740,7 +2679,7 @@
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="7">
         <f>B37</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="8"/>
@@ -2750,17 +2689,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="44">
         <f>B32+1</f>
-        <v>42863</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>32</v>
-      </c>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
@@ -2786,19 +2719,19 @@
       </c>
       <c r="C41" s="21">
         <f>C3+7</f>
-        <v>42864</v>
+        <v>42877</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="23">
         <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="7">
         <f>B44</f>
-        <v>42864</v>
+        <v>42877</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="8"/>
@@ -2808,31 +2741,31 @@
       <c r="A44" s="2"/>
       <c r="B44" s="44">
         <f>B37+1</f>
-        <v>42864</v>
+        <v>42877</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="44"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="45"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2"/>
@@ -2845,7 +2778,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="7">
         <f>B49</f>
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="8"/>
@@ -2855,31 +2788,31 @@
       <c r="A49" s="2"/>
       <c r="B49" s="44">
         <f>B44+1</f>
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="44"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="45"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="2"/>
@@ -2892,7 +2825,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="7">
         <f>B54</f>
-        <v>42866</v>
+        <v>42879</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
@@ -2902,31 +2835,31 @@
       <c r="A54" s="2"/>
       <c r="B54" s="44">
         <f>B49+1</f>
-        <v>42866</v>
+        <v>42879</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="44"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="45"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="3"/>
@@ -2934,7 +2867,7 @@
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="7">
         <f>B59</f>
-        <v>42867</v>
+        <v>42880</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="8"/>
@@ -2944,31 +2877,31 @@
       <c r="A59" s="2"/>
       <c r="B59" s="44">
         <f>B54+1</f>
-        <v>42867</v>
+        <v>42880</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="44"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="15"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="45"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="3"/>
@@ -2976,7 +2909,7 @@
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="7">
         <f>B64</f>
-        <v>42868</v>
+        <v>42881</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="8"/>
@@ -2986,25 +2919,37 @@
       <c r="A64" s="2"/>
       <c r="B64" s="44">
         <f>B59+1</f>
-        <v>42868</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="44"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="45"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="3"/>
@@ -3012,7 +2957,7 @@
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="7">
         <f>B69</f>
-        <v>42869</v>
+        <v>42882</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
@@ -3022,25 +2967,37 @@
       <c r="A69" s="2"/>
       <c r="B69" s="44">
         <f>B64+1</f>
-        <v>42869</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="15"/>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="44"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
+      <c r="C70" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="45"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="3"/>
@@ -3048,7 +3005,7 @@
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="7">
         <f>B74</f>
-        <v>42870</v>
+        <v>42883</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="8"/>
@@ -3058,17 +3015,11 @@
       <c r="A74" s="2"/>
       <c r="B74" s="44">
         <f>B69+1</f>
-        <v>42870</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>41</v>
-      </c>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
@@ -3121,6 +3072,997 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1">
+      <c r="B1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42857</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42857</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="48">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="50">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42857</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="44">
+        <f>E2</f>
+        <v>42857</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="45"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42858</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="44">
+        <f>B7+1</f>
+        <v>42858</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="44"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="45"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42859</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="44">
+        <f>B12+1</f>
+        <v>42859</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42860</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="44">
+        <f>B17+1</f>
+        <v>42860</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42861</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="44">
+        <f>B22+1</f>
+        <v>42861</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42862</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="44">
+        <f>B27+1</f>
+        <v>42862</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42863</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="44">
+        <f>B32+1</f>
+        <v>42863</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42864</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42864</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="44">
+        <f>B37+1</f>
+        <v>42864</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42865</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="44">
+        <f>B44+1</f>
+        <v>42865</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42866</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="44">
+        <f>B49+1</f>
+        <v>42866</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42867</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="44">
+        <f>B54+1</f>
+        <v>42867</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42868</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="44">
+        <f>B59+1</f>
+        <v>42868</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42869</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="44">
+        <f>B64+1</f>
+        <v>42869</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42870</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="44">
+        <f>B69+1</f>
+        <v>42870</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -4093,13 +5035,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4112,6 +5047,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4123,7 +5065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -5094,13 +6036,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5113,6 +6048,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -742,6 +742,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,7 +772,6 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1045,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1071,11 +1071,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1084,14 +1084,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1138,10 +1138,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1152,16 +1152,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42884</v>
       </c>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1316,7 +1316,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1425,7 +1425,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42885</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -1460,7 +1460,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1496,8 +1496,8 @@
         <f>B17</f>
         <v>42886</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42886</v>
       </c>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="39" t="s">
         <v>45</v>
       </c>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="43" t="s">
         <v>46</v>
       </c>
@@ -1556,13 +1556,13 @@
         <f>B22</f>
         <v>42887</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="8"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42887</v>
       </c>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="39" t="s">
         <v>45</v>
       </c>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="43" t="s">
         <v>46</v>
       </c>
@@ -1610,13 +1610,13 @@
         <f>B27</f>
         <v>42888</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="8"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42888</v>
       </c>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="39" t="s">
         <v>45</v>
       </c>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="43" t="s">
         <v>46</v>
       </c>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42889</v>
       </c>
@@ -1680,14 +1680,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42890</v>
       </c>
@@ -1716,14 +1716,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42891</v>
       </c>
@@ -1762,14 +1762,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42892</v>
       </c>
@@ -1803,14 +1803,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42893</v>
       </c>
@@ -1844,14 +1844,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42894</v>
       </c>
@@ -1880,14 +1880,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="43"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42895</v>
       </c>
@@ -1916,14 +1916,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42896</v>
       </c>
@@ -1952,14 +1952,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="43"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42897</v>
       </c>
@@ -1988,14 +1988,1049 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:E70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1">
+      <c r="B1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="46"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="46"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -2032,12 +3067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:E70"/>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2052,11 +3087,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2065,20 +3100,20 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="38">
         <f>C3</f>
-        <v>42870</v>
+        <v>42857</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>20</v>
@@ -2100,12 +3135,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="21">
-        <v>42870</v>
+        <v>42857</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="23">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="26"/>
@@ -2119,10 +3154,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2133,16 +3168,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2183,7 +3218,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="7">
         <f>B7</f>
-        <v>42870</v>
+        <v>42857</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
@@ -2221,19 +3256,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>E2</f>
-        <v>42870</v>
+        <v>42857</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E7" s="39"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -2267,7 +3300,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2303,7 +3336,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2375,7 +3408,7 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="7">
         <f>B12</f>
-        <v>42871</v>
+        <v>42858</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="8"/>
@@ -2412,18 +3445,18 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <f>B7+1</f>
-        <v>42871</v>
+        <v>42858</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -2436,16 +3469,10 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="44"/>
-      <c r="C13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
       <c r="G13" s="36" t="s">
         <v>15</v>
       </c>
@@ -2459,7 +3486,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2493,7 +3520,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="7">
         <f>B17</f>
-        <v>42872</v>
+        <v>42859</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="8"/>
@@ -2505,38 +3532,32 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="45">
         <f>B12+1</f>
-        <v>42872</v>
+        <v>42859</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2547,7 +3568,7 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="7">
         <f>B22</f>
-        <v>42873</v>
+        <v>42860</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="8"/>
@@ -2555,36 +3576,30 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="45">
         <f>B17+1</f>
-        <v>42873</v>
+        <v>42860</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2595,7 +3610,7 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="7">
         <f>B27</f>
-        <v>42874</v>
+        <v>42861</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
@@ -2603,36 +3618,24 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="45">
         <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>42</v>
-      </c>
+        <v>42861</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2643,7 +3646,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="7">
         <f>B32</f>
-        <v>42875</v>
+        <v>42862</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="8"/>
@@ -2651,9 +3654,9 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="45">
         <f>B27+1</f>
-        <v>42875</v>
+        <v>42862</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -2661,14 +3664,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2679,7 +3682,7 @@
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="7">
         <f>B37</f>
-        <v>42876</v>
+        <v>42863</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="8"/>
@@ -2687,24 +3690,30 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="45">
         <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+        <v>42863</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2719,19 +3728,19 @@
       </c>
       <c r="C41" s="21">
         <f>C3+7</f>
-        <v>42877</v>
+        <v>42864</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="23">
         <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="7">
         <f>B44</f>
-        <v>42877</v>
+        <v>42864</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="8"/>
@@ -2739,33 +3748,33 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="45">
         <f>B37+1</f>
-        <v>42877</v>
+        <v>42864</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2"/>
@@ -2778,7 +3787,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="7">
         <f>B49</f>
-        <v>42878</v>
+        <v>42865</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="8"/>
@@ -2786,33 +3795,33 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="45">
         <f>B44+1</f>
-        <v>42878</v>
+        <v>42865</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="2"/>
@@ -2825,7 +3834,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="7">
         <f>B54</f>
-        <v>42879</v>
+        <v>42866</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
@@ -2833,33 +3842,33 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="45">
         <f>B49+1</f>
-        <v>42879</v>
+        <v>42866</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="3"/>
@@ -2867,7 +3876,7 @@
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="7">
         <f>B59</f>
-        <v>42880</v>
+        <v>42867</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="8"/>
@@ -2875,33 +3884,33 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="45">
         <f>B54+1</f>
-        <v>42880</v>
+        <v>42867</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="3"/>
@@ -2909,7 +3918,7 @@
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="7">
         <f>B64</f>
-        <v>42881</v>
+        <v>42868</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="8"/>
@@ -2917,39 +3926,27 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="45">
         <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42868</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="3"/>
@@ -2957,7 +3954,7 @@
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="7">
         <f>B69</f>
-        <v>42882</v>
+        <v>42869</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
@@ -2965,39 +3962,27 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="45">
         <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>44</v>
-      </c>
+        <v>42869</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="B70" s="45"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="3"/>
@@ -3005,7 +3990,7 @@
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="7">
         <f>B74</f>
-        <v>42883</v>
+        <v>42870</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="8"/>
@@ -3013,24 +3998,30 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="45">
         <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+        <v>42870</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -3067,997 +4058,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:E74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38">
-        <f>C3</f>
-        <v>42857</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42857</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>18</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="30">
-        <v>5</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="48">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="50">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="7">
-        <f>B7</f>
-        <v>42857</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="35" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="35">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="35">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="35">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="35">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="35">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="35">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="44">
-        <f>E2</f>
-        <v>42857</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="G7" s="35">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="35">
-        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="35">
-        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="35">
-        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="35">
-        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="35">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="35">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="35">
-        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="35">
-        <f t="shared" si="2"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="2"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="2"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="2"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="35">
-        <f t="shared" si="2"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="2"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="2"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="2"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="2"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="3"/>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="2"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="2"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="7">
-        <f>B12</f>
-        <v>42858</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="44">
-        <f>B7+1</f>
-        <v>42858</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="44"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="45"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7">
-        <f>B17</f>
-        <v>42859</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="44">
-        <f>B12+1</f>
-        <v>42859</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="7">
-        <f>B22</f>
-        <v>42860</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="44">
-        <f>B17+1</f>
-        <v>42860</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="7">
-        <f>B27</f>
-        <v>42861</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="44">
-        <f>B22+1</f>
-        <v>42861</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="7">
-        <f>B32</f>
-        <v>42862</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="44">
-        <f>B27+1</f>
-        <v>42862</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="7">
-        <f>B37</f>
-        <v>42863</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="44">
-        <f>B32+1</f>
-        <v>42863</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="21">
-        <f>C3+7</f>
-        <v>42864</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="7">
-        <f>B44</f>
-        <v>42864</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="44">
-        <f>B37+1</f>
-        <v>42864</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7">
-        <f>B49</f>
-        <v>42865</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="44">
-        <f>B44+1</f>
-        <v>42865</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7">
-        <f>B54</f>
-        <v>42866</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="44">
-        <f>B49+1</f>
-        <v>42866</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="7">
-        <f>B59</f>
-        <v>42867</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="44">
-        <f>B54+1</f>
-        <v>42867</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="7">
-        <f>B64</f>
-        <v>42868</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="44">
-        <f>B59+1</f>
-        <v>42868</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="7">
-        <f>B69</f>
-        <v>42869</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="44">
-        <f>B64+1</f>
-        <v>42869</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="7">
-        <f>B74</f>
-        <v>42870</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="44">
-        <f>B69+1</f>
-        <v>42870</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
@@ -4078,11 +4078,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -4091,14 +4091,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4145,10 +4145,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4159,16 +4159,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4323,7 +4323,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4432,7 +4432,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4467,7 +4467,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -4565,14 +4565,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="39" t="s">
         <v>34</v>
       </c>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -4651,14 +4651,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -4691,14 +4691,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -4749,14 +4749,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="39" t="s">
         <v>29</v>
       </c>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="39" t="s">
         <v>29</v>
       </c>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="39" t="s">
         <v>29</v>
       </c>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -4985,14 +4985,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -5021,20 +5021,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5047,13 +5054,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5085,11 +5085,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -5098,14 +5098,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5152,10 +5152,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -5166,16 +5166,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -5336,7 +5336,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -5445,7 +5445,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12"/>
       <c r="D13" s="39" t="s">
         <v>30</v>
@@ -5488,7 +5488,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="44">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40" t="s">
@@ -5561,7 +5561,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="44">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
@@ -5605,7 +5605,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="44">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="40" t="s">
@@ -5649,7 +5649,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="44">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -5678,14 +5678,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="44">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -5714,14 +5714,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="44">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -5772,14 +5772,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="44">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -5819,14 +5819,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="13"/>
       <c r="D50" s="10"/>
       <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="44">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -5866,14 +5866,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="45"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="44">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -5908,14 +5908,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="45"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="44">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -5950,14 +5950,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="44"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="44">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -5986,14 +5986,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="44">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -6022,20 +6022,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="44"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6048,13 +6055,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="52">
   <si>
     <t>MORNING</t>
   </si>
@@ -201,6 +201,26 @@
   </si>
   <si>
     <t>配合焦作中旅&amp;平顶山银行接口集成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施方案PPT制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKI内容学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3649版本测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城银行无纸化系统改造</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1055,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1496,9 +1516,15 @@
         <f>B17</f>
         <v>42886</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
       <c r="H16" s="2"/>
@@ -1511,13 +1537,13 @@
         <v>42886</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -1525,13 +1551,13 @@
       <c r="A18" s="2"/>
       <c r="B18" s="45"/>
       <c r="C18" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G18" s="18"/>
     </row>
@@ -1539,13 +1565,13 @@
       <c r="A19" s="2"/>
       <c r="B19" s="46"/>
       <c r="C19" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1556,9 +1582,15 @@
         <f>B22</f>
         <v>42887</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2"/>
@@ -1567,39 +1599,39 @@
         <v>42887</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="45"/>
       <c r="C23" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="46"/>
       <c r="C24" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1610,9 +1642,15 @@
         <f>B27</f>
         <v>42888</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
@@ -1621,39 +1659,39 @@
         <v>42888</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="45"/>
       <c r="C28" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="46"/>
       <c r="C29" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1756,23 +1794,41 @@
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="C45" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="C46" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2"/>
@@ -1797,23 +1853,41 @@
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="C49" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="45"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="C50" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="C51" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="2"/>
@@ -1838,23 +1912,41 @@
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="C54" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="45"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="C55" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="C56" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="3"/>
@@ -1874,23 +1966,41 @@
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="C59" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="45"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="C60" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
+      <c r="C61" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="3"/>
@@ -1910,23 +2020,41 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="C64" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="45"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="C65" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="46"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
+      <c r="C66" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="3"/>
@@ -2002,13 +2130,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2021,6 +2142,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3037,6 +3165,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3049,13 +3184,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4028,13 +4156,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4047,6 +4168,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5035,13 +5163,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5054,6 +5175,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6036,13 +6164,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6055,6 +6176,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="newest" sheetId="6" r:id="rId1"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="week23-24" sheetId="7" r:id="rId2"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>分组</t>
   </si>
@@ -216,6 +217,15 @@
   <si>
     <t>金城银行汽车贷上线支持
 焦作中旅集成支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平顶山银行上线支持
+焦作中旅集成支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly schedule</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,15 +905,27 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,15 +939,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1347,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1343,19 +1356,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1367,47 +1380,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="33">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33">
+      <c r="B2" s="36">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33">
+        <v>42899</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33">
+        <v>42900</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33">
+        <v>42901</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33">
+        <v>42902</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33">
+        <v>42903</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="33"/>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1456,22 +1469,22 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>63</v>
@@ -1492,19 +1505,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="A6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1516,47 +1529,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="36">
         <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33">
+        <v>42905</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33">
+        <v>42906</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
+        <v>42907</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
+        <v>42908</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
+        <v>42909</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33">
+        <v>42910</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="33"/>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1605,34 +1618,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1641,16 +1654,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1659,6 +1662,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,6 +1679,343 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -1681,32 +2031,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1715,8 +2065,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +2121,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1791,7 +2141,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +2159,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +2177,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1847,7 +2197,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1865,7 +2215,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="37"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1883,7 +2233,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1903,7 +2253,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +2271,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1959,7 +2309,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1979,7 +2329,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1997,7 +2347,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2015,7 +2365,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2035,7 +2385,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2053,7 +2403,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2421,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2091,7 +2441,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="36"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2109,7 +2459,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2167,7 +2517,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2187,7 +2537,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2205,7 +2555,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2225,7 +2575,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2593,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2261,7 +2611,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2279,7 +2629,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2297,7 +2647,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2315,7 +2665,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2333,7 +2683,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2351,7 +2701,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2369,7 +2719,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2737,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2406,11 +2756,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2421,6 +2766,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="newest" sheetId="6" r:id="rId1"/>
     <sheet name="week23-24" sheetId="7" r:id="rId2"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="week24-25" sheetId="8" r:id="rId3"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="68">
   <si>
     <t>分组</t>
   </si>
@@ -226,6 +227,10 @@
   </si>
   <si>
     <t>Weekly schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平顶山银行网贷业务上线支持（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,13 +913,31 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,21 +947,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,7 +1355,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1356,19 +1364,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1380,47 +1388,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="35">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1469,34 +1477,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1505,19 +1513,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1529,47 +1537,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1654,6 +1662,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1662,16 +1680,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,13 +1701,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1717,47 +1725,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1842,13 +1850,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1866,47 +1874,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1983,6 +1991,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="35">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="35">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2015,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2031,32 +2376,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2065,8 +2410,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2121,7 +2466,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2141,7 +2486,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +2504,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2177,7 +2522,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2197,7 +2542,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2215,7 +2560,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2578,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2253,7 +2598,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2616,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2309,7 +2654,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2329,7 +2674,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2347,7 +2692,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2365,7 +2710,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2385,7 +2730,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2403,7 +2748,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2766,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2441,7 +2786,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2459,7 +2804,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2517,7 +2862,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2537,7 +2882,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2555,7 +2900,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2575,7 +2920,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2593,7 +2938,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2611,7 +2956,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2629,7 +2974,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2647,7 +2992,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2665,7 +3010,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2683,7 +3028,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +3046,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2719,7 +3064,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +3082,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2756,6 +3101,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2766,11 +3116,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -230,7 +230,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>平顶山银行网贷业务上线支持（外出）</t>
+    <t>平顶山银行网贷上线支持（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -916,14 +916,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,15 +947,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,7 +1355,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1364,13 +1364,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1391,41 +1391,41 @@
       <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="37">
         <f>DATE(2017,6,19)</f>
         <v>42905</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
         <v>42906</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42907</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42908</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42909</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42910</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42911</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="36"/>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1540,41 +1540,41 @@
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <f>B2+7</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42913</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42914</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42915</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42916</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42917</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42918</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="36"/>
@@ -1662,16 +1662,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1680,6 +1670,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,13 +1701,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1728,41 +1728,41 @@
       <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="37">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="36"/>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1877,41 +1877,41 @@
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="36"/>
@@ -1991,6 +1991,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2023,343 +2360,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="35">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="35">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
@@ -2376,32 +2376,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2410,8 +2410,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2486,7 +2486,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2542,7 +2542,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2598,7 +2598,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2674,7 +2674,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2730,7 +2730,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2786,7 +2786,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2882,7 +2882,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2920,7 +2920,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="41"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3101,11 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3116,6 +3111,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
   <si>
     <t>分组</t>
   </si>
@@ -221,16 +221,32 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>平顶山银行上线支持
+    <t>Weekly schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统新需求分析</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA系统部署及demo测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows环境RA系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux环境RA系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA系统demo测试
 焦作中旅集成支持</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Weekly schedule</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>平顶山银行网贷上线支持（外出）</t>
+    <t>平顶山银行上线支持</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -916,14 +932,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,15 +963,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,7 +1371,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:E6"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1364,19 +1380,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1391,41 +1407,41 @@
       <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="B2" s="37">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="35"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="36"/>
@@ -1477,28 +1493,28 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>67</v>
@@ -1513,19 +1529,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1540,41 +1556,41 @@
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="35"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="36"/>
@@ -1626,34 +1642,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1662,16 +1678,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1680,6 +1686,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,13 +1717,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1728,41 +1744,41 @@
       <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="37">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="36"/>
@@ -1850,13 +1866,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1877,41 +1893,41 @@
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="36"/>
@@ -1991,6 +2007,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2023,343 +2376,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="35">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="35">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
@@ -2376,32 +2392,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2410,8 +2426,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2482,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2486,7 +2502,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2520,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2538,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2542,7 +2558,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2560,7 +2576,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2578,7 +2594,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2598,7 +2614,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2632,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2670,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2674,7 +2690,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2692,7 +2708,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2710,7 +2726,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2730,7 +2746,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2748,7 +2764,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2766,7 +2782,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2786,7 +2802,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2804,7 +2820,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2862,7 +2878,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2882,7 +2898,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2916,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2920,7 +2936,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2938,7 +2954,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +2972,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2974,7 +2990,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2992,7 +3008,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3010,7 +3026,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3028,7 +3044,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3046,7 +3062,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3064,7 +3080,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="41"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3098,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3101,11 +3117,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3116,6 +3127,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="newest" sheetId="6" r:id="rId1"/>
     <sheet name="week23-24" sheetId="7" r:id="rId2"/>
-    <sheet name="week24-25" sheetId="8" r:id="rId3"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="week26-27" sheetId="9" r:id="rId3"/>
+    <sheet name="week24-25" sheetId="8" r:id="rId4"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
   <si>
     <t>分组</t>
   </si>
@@ -247,6 +248,15 @@
   </si>
   <si>
     <t>平顶山银行上线支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北消费金融问题处理（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅无纸化系统上线
+业务系统上线支持</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,13 +942,31 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,21 +976,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,7 +1384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1380,19 +1393,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1404,47 +1417,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="B2" s="36">
+        <f>DATE(2017,7,3)</f>
+        <v>42919</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+        <v>42920</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+        <v>42921</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+        <v>42922</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+        <v>42924</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="37"/>
+        <v>42925</v>
+      </c>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1493,34 +1506,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1529,19 +1542,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1553,47 +1566,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+        <v>42927</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+        <v>42928</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+        <v>42929</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+        <v>42930</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+        <v>42931</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="37"/>
+        <v>42932</v>
+      </c>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1642,34 +1655,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1678,6 +1691,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1686,16 +1709,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,13 +1730,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1741,47 +1754,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1866,13 +1879,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1890,47 +1903,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2007,6 +2020,680 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2039,344 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="37">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="37">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2392,32 +2742,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2426,8 +2776,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2832,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2502,7 +2852,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2870,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2538,7 +2888,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2558,7 +2908,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2576,7 +2926,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2594,7 +2944,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2614,7 +2964,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2632,7 +2982,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2670,7 +3020,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2690,7 +3040,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2708,7 +3058,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2726,7 +3076,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2746,7 +3096,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +3114,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2782,7 +3132,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2802,7 +3152,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2820,7 +3170,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2878,7 +3228,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2898,7 +3248,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2916,7 +3266,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2936,7 +3286,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2954,7 +3304,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +3322,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2990,7 +3340,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3008,7 +3358,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3376,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3044,7 +3394,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3062,7 +3412,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3080,7 +3430,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3098,7 +3448,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3117,6 +3467,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3127,11 +3482,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="75">
   <si>
     <t>分组</t>
   </si>
@@ -251,12 +251,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>湖北消费金融问题处理（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>焦作中旅无纸化系统上线
 业务系统上线支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅手机无纸化上线前准备工作（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅无纸化系统上线
+手机银行测试支持
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -945,14 +951,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -967,15 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1384,7 +1390,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1393,19 +1399,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1420,41 +1426,41 @@
       <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,7,3)</f>
-        <v>42919</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="38">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42920</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42927</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42921</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42928</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42922</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42929</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42923</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42930</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42924</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42931</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42925</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -1506,34 +1512,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1569,41 +1575,41 @@
       <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42926</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42927</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42934</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42928</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42935</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42929</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42936</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42930</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42937</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42931</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42938</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42932</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="37"/>
@@ -1655,34 +1661,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1691,16 +1697,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1709,6 +1705,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,13 +1736,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1757,41 +1763,41 @@
       <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="38">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -1879,13 +1885,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1906,41 +1912,41 @@
       <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="37"/>
@@ -2020,6 +2026,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2052,343 +2395,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="36">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -2404,13 +2410,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2431,41 +2437,41 @@
       <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="38">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -2553,13 +2559,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2580,41 +2586,41 @@
       <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="37"/>
@@ -2702,11 +2708,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2720,6 +2721,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2742,32 +2748,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2776,8 +2782,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2832,7 +2838,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2852,7 +2858,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2870,7 +2876,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2888,7 +2894,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2908,7 +2914,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2926,7 +2932,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +2950,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2964,7 +2970,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +2988,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3020,7 +3026,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3040,7 +3046,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3058,7 +3064,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3076,7 +3082,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3096,7 +3102,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3114,7 +3120,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3132,7 +3138,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3152,7 +3158,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3170,7 +3176,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3228,7 +3234,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3248,7 +3254,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3266,7 +3272,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3286,7 +3292,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3304,7 +3310,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3322,7 +3328,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3346,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3358,7 +3364,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3376,7 +3382,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3394,7 +3400,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3412,7 +3418,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="42"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3430,7 +3436,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3448,7 +3454,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="42"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3467,11 +3473,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3482,6 +3483,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="76">
   <si>
     <t>分组</t>
   </si>
@@ -256,12 +256,16 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>焦作中旅手机无纸化上线前准备工作（外出）</t>
+    <t>无纸化产品规划会议</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>云证通&amp;网络身份认证学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>焦作中旅无纸化系统上线
-手机银行测试支持
+“易秒贷”业务上线
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -951,13 +955,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,21 +986,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1390,7 +1394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1399,19 +1403,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1426,41 +1430,41 @@
       <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,7,10)</f>
-        <v>42926</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="36">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
-        <v>42927</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>42934</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42928</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>42935</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42929</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>42936</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42930</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>42937</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42931</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>42938</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42932</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -1518,28 +1522,28 @@
         <v>73</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1548,19 +1552,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1575,41 +1579,41 @@
       <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <f>B2+7</f>
-        <v>42933</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+        <v>42940</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42934</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42935</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+        <v>42942</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42936</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42937</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+        <v>42944</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42938</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+        <v>42945</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42939</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="37"/>
@@ -1661,31 +1665,31 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>72</v>
@@ -1697,6 +1701,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1705,16 +1719,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,13 +1740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1763,41 +1767,41 @@
       <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -1885,13 +1889,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1912,41 +1916,41 @@
       <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="37"/>
@@ -2026,6 +2030,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2058,343 +2399,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -2410,13 +2414,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2437,41 +2441,41 @@
       <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -2559,13 +2563,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2586,41 +2590,41 @@
       <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="37"/>
@@ -2708,6 +2712,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2721,11 +2730,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,32 +2752,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="40"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2782,8 +2786,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2858,7 +2862,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2894,7 +2898,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2914,7 +2918,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2932,7 +2936,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2950,7 +2954,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2970,7 +2974,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +2992,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3026,7 +3030,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3046,7 +3050,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3064,7 +3068,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3082,7 +3086,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3102,7 +3106,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3124,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3138,7 +3142,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3158,7 +3162,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3176,7 +3180,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3234,7 +3238,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3254,7 +3258,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3292,7 +3296,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3314,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3328,7 +3332,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3346,7 +3350,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3364,7 +3368,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3382,7 +3386,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +3404,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3418,7 +3422,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3436,7 +3440,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3473,6 +3477,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3483,11 +3492,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="newest" sheetId="6" r:id="rId1"/>
-    <sheet name="week23-24" sheetId="7" r:id="rId2"/>
-    <sheet name="week26-27" sheetId="9" r:id="rId3"/>
-    <sheet name="week24-25" sheetId="8" r:id="rId4"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="week29-30" sheetId="10" r:id="rId2"/>
+    <sheet name="week23-24" sheetId="7" r:id="rId3"/>
+    <sheet name="week26-27" sheetId="9" r:id="rId4"/>
+    <sheet name="week24-25" sheetId="8" r:id="rId5"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="83">
   <si>
     <t>分组</t>
   </si>
@@ -267,6 +268,37 @@
     <t>焦作中旅无纸化系统上线
 “易秒贷”业务上线
 （外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云证通集成&amp;无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云证通集成学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合华泰POC测试演练</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合华泰POC测试演练
+云证通集成学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合华泰POC测试演练
+云端无纸化安装及Nginx测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品学习及交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰POC测试
+百瑞信托或天津银行无纸化实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,14 +987,26 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,15 +1021,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1393,8 +1428,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1403,19 +1438,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1427,47 +1462,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,7,17)</f>
-        <v>42933</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="39">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>42934</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42941</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42935</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42942</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42936</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42943</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42937</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42944</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42938</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42945</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42939</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1516,34 +1551,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1552,19 +1587,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1576,47 +1611,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>42940</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42947</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42941</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42948</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42942</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42949</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42943</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42950</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42944</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42951</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42945</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42952</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42946</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1665,34 +1700,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1701,16 +1736,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1719,6 +1744,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1726,6 +1761,343 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>29</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,7,17)</f>
+        <v>42933</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42934</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42935</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42936</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42937</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42938</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42939</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42940</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42941</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42942</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42943</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42944</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42945</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42946</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1740,13 +2112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1764,47 +2136,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1889,13 +2261,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1913,47 +2285,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2030,343 +2402,6 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="36">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2405,7 +2440,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2414,19 +2449,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2438,87 +2473,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2527,34 +2562,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2563,19 +2598,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2587,87 +2622,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2676,34 +2711,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2712,11 +2747,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2730,6 +2760,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,6 +2772,343 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2752,32 +3124,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2786,8 +3158,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2842,7 +3214,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2862,7 +3234,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +3252,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +3270,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2918,7 +3290,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2936,7 +3308,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2954,7 +3326,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2974,7 +3346,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2992,7 +3364,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3030,7 +3402,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3050,7 +3422,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3068,7 +3440,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3086,7 +3458,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3106,7 +3478,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3496,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3142,7 +3514,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3162,7 +3534,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3180,7 +3552,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3238,7 +3610,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3258,7 +3630,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3276,7 +3648,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3296,7 +3668,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3314,7 +3686,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="42"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3332,7 +3704,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="42"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3350,7 +3722,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="42"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3368,7 +3740,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3386,7 +3758,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3404,7 +3776,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3422,7 +3794,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="42"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3440,7 +3812,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3458,7 +3830,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="42"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3477,11 +3849,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3492,6 +3859,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="86">
   <si>
     <t>分组</t>
   </si>
@@ -299,6 +299,20 @@
   <si>
     <t>华泰POC测试
 百瑞信托或天津银行无纸化实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行业务流程梳理（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合天津银行进行接口集成
+无纸化安装、使用、功能培训
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行无纸化系统及助学贷业务上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +988,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1428,8 +1445,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7:K7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1438,19 +1455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1462,47 +1479,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="40">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42955</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42956</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42957</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42958</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42959</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1551,34 +1568,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1587,19 +1604,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1611,47 +1628,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42962</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42963</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42964</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42965</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42966</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1700,34 +1717,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1762,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1775,13 +1792,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1799,47 +1816,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -1924,13 +1941,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1948,47 +1965,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -2071,18 +2088,310 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
+    <row r="13" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="30">
+        <f>WEEKNUM(B14)</f>
+        <v>30</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="40">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40">
+        <f>SUM(B14+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
+        <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
+        <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40">
+        <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40">
+        <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40">
+        <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O14" s="40"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1"/>
+    <row r="18" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="30">
+        <f>WEEKNUM(B19)</f>
+        <v>31</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1">
+      <c r="A19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="40">
+        <f>B14+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40">
+        <f t="shared" ref="D19" si="16">D14+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40">
+        <f t="shared" ref="F19" si="17">F14+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40">
+        <f t="shared" ref="H19" si="18">H14+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40">
+        <f t="shared" ref="J19" si="19">J14+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40">
+        <f t="shared" ref="L19" si="20">L14+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40">
+        <f t="shared" ref="N19" si="21">N14+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O19" s="40"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A21" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="36">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2091,6 +2400,29 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,13 +2444,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2136,47 +2468,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -2261,13 +2593,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2285,47 +2617,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2449,13 +2781,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2473,47 +2805,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
@@ -2598,13 +2930,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2622,47 +2954,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
@@ -2786,13 +3118,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2810,47 +3142,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -2935,13 +3267,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2959,47 +3291,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3124,32 +3456,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3158,8 +3490,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3214,7 +3546,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3234,7 +3566,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3252,7 +3584,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3270,7 +3602,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3290,7 +3622,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3308,7 +3640,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +3658,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3346,7 +3678,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3364,7 +3696,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3402,7 +3734,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3422,7 +3754,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3440,7 +3772,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3458,7 +3790,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3478,7 +3810,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3496,7 +3828,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3514,7 +3846,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3534,7 +3866,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3552,7 +3884,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3610,7 +3942,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3630,7 +3962,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3648,7 +3980,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3668,7 +4000,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3686,7 +4018,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3704,7 +4036,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3722,7 +4054,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3740,7 +4072,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3758,7 +4090,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3776,7 +4108,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +4126,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3812,7 +4144,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3830,7 +4162,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="89">
   <si>
     <t>分组</t>
   </si>
@@ -302,17 +302,34 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行业务流程梳理（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>配合天津银行进行接口集成
 无纸化安装、使用、功能培训
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化系统及助学贷业务上线</t>
+    <t>天津银行无纸化上线准备
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行需求评审
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行无纸化上线准备
+配合接口集成调试
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行上线后续工作
+解决方案书写</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1007,13 +1024,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,21 +1055,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1462,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1455,19 +1472,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1482,41 +1499,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="38">
+        <f>DATE(2017,8,14)</f>
+        <v>42961</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42962</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42963</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42964</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42965</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42966</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42967</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1574,7 +1591,7 @@
         <v>83</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>84</v>
@@ -1586,37 +1603,45 @@
         <v>84</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+        <v>86</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1631,41 +1656,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42968</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42969</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42970</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42971</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42972</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42973</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42974</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -1717,34 +1742,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1753,6 +1778,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1761,16 +1796,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1792,13 +1817,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1819,41 +1844,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1941,13 +1966,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1968,41 +1993,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2089,13 +2114,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2116,41 +2141,41 @@
       <c r="A14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="39"/>
@@ -2238,13 +2263,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2265,41 +2290,41 @@
       <c r="A19" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40">
+      <c r="I19" s="38"/>
+      <c r="J19" s="38">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="40"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="39"/>
@@ -2387,11 +2412,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2405,24 +2443,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2444,13 +2469,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2471,41 +2496,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -2593,13 +2618,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2620,41 +2645,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2734,6 +2759,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2766,343 +3128,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3118,13 +3143,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3145,41 +3170,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -3267,13 +3292,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3294,41 +3319,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -3416,6 +3441,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3429,11 +3459,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3456,32 +3481,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3515,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3546,7 +3571,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3566,7 +3591,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3584,7 +3609,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3627,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3622,7 +3647,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3640,7 +3665,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3658,7 +3683,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3678,7 +3703,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3696,7 +3721,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3734,7 +3759,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3754,7 +3779,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3772,7 +3797,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3790,7 +3815,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3810,7 +3835,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3828,7 +3853,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3846,7 +3871,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3866,7 +3891,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3884,7 +3909,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3942,7 +3967,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3962,7 +3987,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3980,7 +4005,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4000,7 +4025,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4018,7 +4043,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4036,7 +4061,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4054,7 +4079,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4072,7 +4097,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4090,7 +4115,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4108,7 +4133,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4126,7 +4151,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4144,7 +4169,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4162,7 +4187,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4181,6 +4206,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4191,11 +4221,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -1024,14 +1024,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1046,15 +1055,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1472,13 +1472,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1499,41 +1499,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,8,14)</f>
         <v>42961</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42962</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42963</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42964</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42965</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42966</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42967</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1656,41 +1656,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42968</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42969</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42970</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42971</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42972</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42973</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42974</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -1778,16 +1778,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1796,6 +1786,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,13 +1817,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1844,41 +1844,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1993,41 +1993,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2114,13 +2114,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2141,41 +2141,41 @@
       <c r="A14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="40">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="38"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="39"/>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2290,41 +2290,41 @@
       <c r="A19" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="40">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38">
+      <c r="M19" s="40"/>
+      <c r="N19" s="40">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="38"/>
+      <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="39"/>
@@ -2412,6 +2412,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2425,29 +2448,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2469,13 +2469,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2496,41 +2496,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2645,41 +2645,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2759,6 +2759,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="40">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2791,343 +3128,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3143,13 +3143,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3170,41 +3170,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -3292,13 +3292,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3319,41 +3319,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -3441,11 +3441,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3459,6 +3454,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,32 +3481,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3515,8 +3515,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3591,7 +3591,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3647,7 +3647,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3703,7 +3703,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3779,7 +3779,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3835,7 +3835,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3891,7 +3891,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3987,7 +3987,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4025,7 +4025,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4206,11 +4206,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4221,6 +4216,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="90">
   <si>
     <t>分组</t>
   </si>
@@ -302,34 +302,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>配合天津银行进行接口集成
-无纸化安装、使用、功能培训
+    <t>天津银行无纸化上线准备
+系统联调测试
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化上线准备
+    <t>天津银行无纸化新方案交流
+无纸化上线准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行需求评审
+    <t>编写新的天津银行需求文档
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化上线准备
-配合接口集成调试
+    <t>天津银行无纸化上线部署
+系统联调测试
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化交流</t>
+    <t>编写新的天津银行需求文档
+配合业务上线内测
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行上线后续工作
-解决方案书写</t>
+    <t>编写新的天津银行需求文档
+配合业务上线
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行后续事宜
+编写行业解决方案及汇报PPT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1024,13 +1033,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,21 +1064,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,8 +1471,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1472,19 +1481,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1499,41 +1508,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,8,14)</f>
-        <v>42961</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="38">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42962</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42963</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42964</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42965</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42966</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42967</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1588,60 +1597,52 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1656,41 +1657,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42968</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42969</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42970</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42971</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42972</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42973</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42974</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -1742,34 +1743,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1778,6 +1779,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1786,16 +1797,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,13 +1818,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1844,41 +1845,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1966,13 +1967,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1993,41 +1994,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2114,13 +2115,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2141,41 +2142,41 @@
       <c r="A14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="39"/>
@@ -2263,13 +2264,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2290,41 +2291,41 @@
       <c r="A19" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40">
+      <c r="I19" s="38"/>
+      <c r="J19" s="38">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="40"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="39"/>
@@ -2412,11 +2413,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2430,24 +2444,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2469,13 +2470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2496,41 +2497,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -2618,13 +2619,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2645,41 +2646,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2759,6 +2760,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2791,343 +3129,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3143,13 +3144,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3170,41 +3171,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -3292,13 +3293,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3319,41 +3320,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -3441,6 +3442,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3454,11 +3460,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,32 +3482,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3515,8 +3516,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3572,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3591,7 +3592,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3647,7 +3648,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3684,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3703,7 +3704,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3721,7 +3722,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3760,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3779,7 +3780,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3797,7 +3798,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3815,7 +3816,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3835,7 +3836,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3871,7 +3872,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3891,7 +3892,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3967,7 +3968,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3987,7 +3988,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4006,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4025,7 +4026,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4043,7 +4044,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4062,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4079,7 +4080,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4097,7 +4098,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4115,7 +4116,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4152,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4170,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4187,7 +4188,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4206,6 +4207,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4216,11 +4222,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="89">
   <si>
     <t>分组</t>
   </si>
@@ -302,43 +302,32 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化上线准备
-系统联调测试
+    <t>保险行业demo测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京捷越无纸化签章接口性能测试
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化新方案交流
-无纸化上线准备
+    <t>准备天津农商银行无纸化交流内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津农商银行无纸化+云证通交流
+及方案梳理
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>编写新的天津银行需求文档
+    <t>中融信托无纸化实施
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行无纸化上线部署
-系统联调测试
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写新的天津银行需求文档
-配合业务上线内测
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写新的天津银行需求文档
-配合业务上线
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津银行后续事宜
-编写行业解决方案及汇报PPT</t>
+    <t>天津农商银行后续事宜
+中融信托后续实施及上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1033,14 +1022,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,15 +1053,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1481,19 +1470,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1508,41 +1497,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="40">
+        <f>DATE(2017,8,28)</f>
+        <v>42975</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>42976</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>42977</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>42978</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>42979</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>42980</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>42981</v>
+      </c>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1597,31 +1586,31 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>86</v>
-      </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1630,19 +1619,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1657,41 +1646,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+        <v>42982</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+        <v>42983</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+        <v>42984</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+        <v>42985</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+        <v>42986</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+        <v>42987</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="38"/>
+        <v>42988</v>
+      </c>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -1743,34 +1732,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1779,16 +1768,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1797,6 +1776,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,13 +1807,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1845,41 +1834,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1967,13 +1956,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1994,41 +1983,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2115,13 +2104,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2142,41 +2131,41 @@
       <c r="A14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="40">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="38"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="39"/>
@@ -2264,13 +2253,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2291,41 +2280,41 @@
       <c r="A19" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="40">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38">
+      <c r="M19" s="40"/>
+      <c r="N19" s="40">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="38"/>
+      <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="39"/>
@@ -2413,6 +2402,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2426,29 +2438,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2470,13 +2459,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2497,41 +2486,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -2619,13 +2608,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2646,41 +2635,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2760,6 +2749,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="40">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2792,343 +3118,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3144,13 +3133,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3171,41 +3160,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -3293,13 +3282,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3320,41 +3309,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -3442,11 +3431,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3460,6 +3444,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3482,32 +3471,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3516,8 +3505,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3561,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3592,7 +3581,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3599,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +3617,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3648,7 +3637,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3666,7 +3655,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3684,7 +3673,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3704,7 +3693,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3722,7 +3711,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3760,7 +3749,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3780,7 +3769,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3798,7 +3787,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3816,7 +3805,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3836,7 +3825,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3854,7 +3843,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3872,7 +3861,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3892,7 +3881,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3910,7 +3899,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3968,7 +3957,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3988,7 +3977,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4006,7 +3995,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4026,7 +4015,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4044,7 +4033,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4062,7 +4051,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4080,7 +4069,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4098,7 +4087,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4116,7 +4105,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4134,7 +4123,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4152,7 +4141,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4170,7 +4159,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4188,7 +4177,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4207,11 +4196,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4222,6 +4206,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="91">
   <si>
     <t>分组</t>
   </si>
@@ -302,32 +302,42 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>保险行业demo测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京捷越无纸化签章接口性能测试
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备天津农商银行无纸化交流内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津农商银行无纸化+云证通交流
-及方案梳理
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>中融信托无纸化实施
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津农商银行后续事宜
-中融信托后续实施及上线</t>
+    <t>汇报PPT试讲
+中融信托无纸化实施
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报PPT制作
+产品规划会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行业务交流
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行业务流程梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>托管RA、SCAP、SVS学习
+包商银行实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">了解包商银行需求
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人工作汇报</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1461,7 +1471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1482,7 +1492,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1498,38 +1508,38 @@
         <v>59</v>
       </c>
       <c r="B2" s="40">
-        <f>DATE(2017,8,28)</f>
-        <v>42975</v>
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42976</v>
+        <v>42983</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42977</v>
+        <v>42984</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42978</v>
+        <v>42985</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42979</v>
+        <v>42986</v>
       </c>
       <c r="K2" s="40"/>
       <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42980</v>
+        <v>42987</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42981</v>
+        <v>42988</v>
       </c>
       <c r="O2" s="40"/>
     </row>
@@ -1583,34 +1593,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1631,7 +1641,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1648,37 +1658,37 @@
       </c>
       <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42982</v>
+        <v>42989</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42983</v>
+        <v>42990</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42984</v>
+        <v>42991</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42985</v>
+        <v>42992</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42986</v>
+        <v>42993</v>
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42987</v>
+        <v>42994</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42988</v>
+        <v>42995</v>
       </c>
       <c r="O7" s="40"/>
     </row>
@@ -1735,7 +1745,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>88</v>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>分组</t>
   </si>
@@ -302,42 +302,44 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中融信托无纸化实施
+    <t>包商银行平台金融实施方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行工作汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行外出交流
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>汇报PPT试讲
-中融信托无纸化实施
+    <t>包商银行实施准备、托管RA学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融实施方案
+托管RA、SCAP学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融信托问题处理
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>汇报PPT制作
-产品规划会议</t>
+    <t>民生银行交流所需资料准备</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行业务交流
-（外出）</t>
+    <t>民生银行交流所需资料准备
+托管RA测试工单填写学习</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行业务流程梳理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>托管RA、SCAP、SVS学习
-包商银行实施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">了解包商银行需求
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人工作汇报</t>
+    <t>包商银行农贷业务实施
+包商银行平台金融实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1470,8 +1472,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1492,7 +1494,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1508,38 +1510,38 @@
         <v>59</v>
       </c>
       <c r="B2" s="40">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
+        <f>DATE(2017,9,11)</f>
+        <v>42989</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40">
         <f>SUM(B2+1)</f>
-        <v>42983</v>
+        <v>42990</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42984</v>
+        <v>42991</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42985</v>
+        <v>42992</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="40">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42986</v>
+        <v>42993</v>
       </c>
       <c r="K2" s="40"/>
       <c r="L2" s="40">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42987</v>
+        <v>42994</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42988</v>
+        <v>42995</v>
       </c>
       <c r="O2" s="40"/>
     </row>
@@ -1593,34 +1595,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1641,7 +1643,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1658,37 +1660,37 @@
       </c>
       <c r="B7" s="40">
         <f>B2+7</f>
-        <v>42989</v>
+        <v>42996</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42990</v>
+        <v>42997</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42991</v>
+        <v>42998</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42992</v>
+        <v>42999</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="40">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42994</v>
+        <v>43001</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42995</v>
+        <v>43002</v>
       </c>
       <c r="O7" s="40"/>
     </row>
@@ -1742,34 +1744,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="88">
   <si>
     <t>分组</t>
   </si>
@@ -302,44 +302,30 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融实施方案</t>
+    <t>包商银行平台金融实施方案
+包商银行农贷项目准备工作</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>进行工作汇报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行外出交流
+    <t>包商银行农贷项目实施
+包商银行平台金融项目交流
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行实施准备、托管RA学习</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行平台金融实施方案
-托管RA、SCAP学习</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中融信托问题处理
+    <t>包商银行农贷项目实施
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行交流所需资料准备</t>
+    <t>包商银行农贷项目实施
+包商银行平台金融实施方案评审</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行交流所需资料准备
-托管RA测试工单填写学习</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行农贷业务实施
-包商银行平台金融实施</t>
+    <t>包商银行农贷项目实施
+包商银行平台金融流程审核
+无纸化系统上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1034,13 +1020,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,21 +1051,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1472,8 +1458,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1482,19 +1468,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1509,41 +1495,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,9,11)</f>
-        <v>42989</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="B2" s="38">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42990</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42991</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42992</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42993</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42994</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42995</v>
-      </c>
-      <c r="O2" s="40"/>
+        <v>42998</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f>SUM(F2+1)</f>
+        <v>42999</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43000</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43001</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1598,31 +1584,31 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="J4" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1631,19 +1617,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1658,41 +1644,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42996</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42997</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42998</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42999</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43000</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43001</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43002</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>43003</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="4">D2+7</f>
+        <v>43004</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="5">F2+7</f>
+        <v>43005</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="6">H2+7</f>
+        <v>43006</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="7">J2+7</f>
+        <v>43007</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="8">L2+7</f>
+        <v>43008</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="9">N2+7</f>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -1744,42 +1730,56 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1788,19 +1788,10 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1819,13 +1810,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1846,41 +1837,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -1968,13 +1959,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1995,41 +1986,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2116,13 +2107,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2143,41 +2134,41 @@
       <c r="A14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="39"/>
@@ -2265,13 +2256,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2292,41 +2283,41 @@
       <c r="A19" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="38">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40">
+      <c r="I19" s="38"/>
+      <c r="J19" s="38">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="40"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="39"/>
@@ -2414,11 +2405,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2432,24 +2436,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2471,13 +2462,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2498,41 +2489,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -2620,13 +2611,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2647,41 +2638,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -2761,6 +2752,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2793,343 +3121,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="40">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="40">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3145,13 +3136,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3172,41 +3163,41 @@
       <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="39"/>
@@ -3294,13 +3285,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3321,41 +3312,41 @@
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="39"/>
@@ -3443,6 +3434,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3456,11 +3452,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3483,32 +3474,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3517,8 +3508,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3573,7 +3564,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3593,7 +3584,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3602,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3620,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3649,7 +3640,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3667,7 +3658,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3685,7 +3676,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3705,7 +3696,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3714,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3752,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3781,7 +3772,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3799,7 +3790,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3817,7 +3808,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3837,7 +3828,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3855,7 +3846,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3873,7 +3864,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3893,7 +3884,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3902,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3969,7 +3960,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3989,7 +3980,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4007,7 +3998,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4027,7 +4018,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4045,7 +4036,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4063,7 +4054,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4081,7 +4072,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4099,7 +4090,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4117,7 +4108,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4135,7 +4126,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4153,7 +4144,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4171,7 +4162,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4189,7 +4180,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4208,6 +4199,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4218,11 +4214,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="85">
   <si>
     <t>分组</t>
   </si>
@@ -302,30 +302,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融实施方案
-包商银行农贷项目准备工作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>包商银行农贷项目实施
-包商银行平台金融项目交流
+平台金融项目方案对接
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目实施
+    <t>包商银行无纸化系统环境上线
 （外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行农贷项目实施
-包商银行平台金融实施方案评审</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行农贷项目实施
-包商银行平台金融流程审核
-无纸化系统上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,14 +1004,26 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,15 +1038,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1458,8 +1445,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1468,19 +1455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1492,47 +1479,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="B2" s="41">
+        <f>DATE(2017,9,25)</f>
+        <v>43003</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+        <v>43004</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+        <v>43005</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+        <v>43006</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+        <v>43007</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+        <v>43008</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="38"/>
+        <v>43009</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1587,49 +1574,53 @@
         <v>83</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1641,47 +1632,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="4">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="5">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="6">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="7">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="8">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="9">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="38"/>
+      <c r="B7" s="41">
+        <f>B2+14</f>
+        <v>43017</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f>D2+14</f>
+        <v>43018</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f>F2+14</f>
+        <v>43019</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f>H2+14</f>
+        <v>43020</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f>J2+14</f>
+        <v>43021</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f>L2+14</f>
+        <v>43022</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f>N2+14</f>
+        <v>43023</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1730,56 +1721,42 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>87</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="O9" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1788,6 +1765,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,13 +1797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1834,47 +1821,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
@@ -1959,13 +1946,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1983,47 +1970,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
@@ -2107,13 +2094,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2131,47 +2118,47 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="38"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="37" t="s">
         <v>2</v>
       </c>
@@ -2256,13 +2243,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2280,47 +2267,47 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="38"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="37" t="s">
         <v>2</v>
       </c>
@@ -2405,6 +2392,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2418,29 +2428,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,13 +2449,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2486,47 +2473,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -2611,13 +2598,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2635,47 +2622,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2752,6 +2739,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2784,343 +3108,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3136,13 +3123,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3160,47 +3147,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
@@ -3285,13 +3272,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3309,47 +3296,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3434,11 +3421,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3452,6 +3434,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3474,32 +3461,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3508,8 +3495,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3564,7 +3551,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3584,7 +3571,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3589,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3607,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3640,7 +3627,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3658,7 +3645,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3676,7 +3663,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3696,7 +3683,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3714,7 +3701,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3752,7 +3739,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3772,7 +3759,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3790,7 +3777,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3808,7 +3795,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3828,7 +3815,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3846,7 +3833,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3864,7 +3851,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3884,7 +3871,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3902,7 +3889,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3960,7 +3947,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3980,7 +3967,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3998,7 +3985,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4018,7 +4005,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4036,7 +4023,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4054,7 +4041,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4072,7 +4059,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4090,7 +4077,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4108,7 +4095,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4126,7 +4113,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4144,7 +4131,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4162,7 +4149,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4180,7 +4167,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4199,11 +4186,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4214,6 +4196,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -14,12 +14,12 @@
     <sheet name="week24-25" sheetId="8" r:id="rId5"/>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
   <si>
     <t>分组</t>
   </si>
@@ -302,13 +302,81 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目实施
-平台金融项目方案对接
+    <t>包商银行硬件资源环境申请
+平台金融模板制作
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行无纸化系统环境上线
+    <t>包商银行平台金融项目签名控件及无纸化前置测试
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行农贷项目CFCA模块整体送测
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行农贷、平台金融、手机银行项目会议
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行农贷项目总体架构及网络环境会议（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行手机银行实施案例交流
+无纸化加F5负载均衡测试
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行上线文档准备
+确定农贷项目总体环境架构图
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行农贷项目前置测试
+无纸化功能讲解
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行数据中心交流SVS部署
+手机银行云证通测试企业证书导入
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行农贷业务上线准备工作
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融定制化接口联调
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助包商银行SVS上线及云证通证书导入
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助包商银行农贷项目CFCA系统上线--无纸化
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助包商银行无纸化及网络身份认证接口联调
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助包商银行农贷业务CFCA环境准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1007,13 +1075,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,21 +1106,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1446,7 +1514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1455,19 +1523,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1482,41 +1550,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,9,25)</f>
-        <v>43003</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="39">
+        <f>DATE(2017,10,30)</f>
+        <v>43038</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43004</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>43005</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>43039</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f>SUM(D2+1)</f>
+        <v>43040</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43006</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
-        <v>43007</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
-        <v>43008</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
-        <v>43009</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>43041</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
+        <v>43042</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
+        <v>43043</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
+        <v>43044</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1571,56 +1639,52 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>83</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1635,41 +1699,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
-        <f>B2+14</f>
-        <v>43017</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f>D2+14</f>
-        <v>43018</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f>F2+14</f>
-        <v>43019</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f>H2+14</f>
-        <v>43020</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f>J2+14</f>
-        <v>43021</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f>L2+14</f>
-        <v>43022</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f>N2+14</f>
-        <v>43023</v>
-      </c>
-      <c r="O7" s="41"/>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>43045</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f>D2+7</f>
+        <v>43046</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f>F2+7</f>
+        <v>43047</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f>H2+7</f>
+        <v>43048</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f>J2+7</f>
+        <v>43049</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f ca="1">L2+7</f>
+        <v>43043</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f ca="1">N2+7</f>
+        <v>43044</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1721,34 +1785,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1757,6 +1821,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1765,16 +1839,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,13 +1861,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1824,41 +1888,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1946,13 +2010,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1973,41 +2037,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2094,13 +2158,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2121,41 +2185,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2243,13 +2307,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2270,41 +2334,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2392,11 +2456,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2410,24 +2487,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,13 +2513,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2476,41 +2540,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2598,13 +2662,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2625,41 +2689,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2739,6 +2803,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2771,343 +3172,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3123,13 +3187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3150,41 +3214,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3272,13 +3336,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3299,41 +3363,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3421,6 +3485,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3434,11 +3503,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,32 +3525,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3495,8 +3559,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3615,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3571,7 +3635,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3589,7 +3653,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3607,7 +3671,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3627,7 +3691,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3645,7 +3709,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3727,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3683,7 +3747,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3765,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3739,7 +3803,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3759,7 +3823,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3777,7 +3841,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3795,7 +3859,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3815,7 +3879,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3833,7 +3897,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3851,7 +3915,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3871,7 +3935,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3889,7 +3953,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3947,7 +4011,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3967,7 +4031,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3985,7 +4049,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4005,7 +4069,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4023,7 +4087,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4105,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4059,7 +4123,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4077,7 +4141,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4095,7 +4159,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4113,7 +4177,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4131,7 +4195,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4149,7 +4213,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4167,7 +4231,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4186,6 +4250,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4196,11 +4265,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -1075,14 +1075,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,15 +1106,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1514,7 +1514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1523,13 +1523,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1550,41 +1550,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,10,30)</f>
         <v>43038</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>43039</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
         <v>43040</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
         <v>43041</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
         <v>43042</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
         <v>43043</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
         <v>43044</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1699,41 +1699,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>43045</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
         <v>43046</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
         <v>43047</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
         <v>43048</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
         <v>43049</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f ca="1">L2+7</f>
         <v>43043</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f ca="1">N2+7</f>
         <v>43044</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1821,16 +1821,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1839,6 +1829,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,13 +1861,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1888,41 +1888,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2037,41 +2037,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2158,13 +2158,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2185,41 +2185,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2307,13 +2307,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2334,41 +2334,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2456,6 +2456,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2469,29 +2492,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,13 +2513,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2540,41 +2540,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2662,13 +2662,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2689,41 +2689,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2803,6 +2803,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2835,343 +3172,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3187,13 +3187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3214,41 +3214,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3336,13 +3336,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3363,41 +3363,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3485,11 +3485,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3503,6 +3498,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3525,32 +3525,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3559,8 +3559,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3635,7 +3635,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3691,7 +3691,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3747,7 +3747,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3765,7 +3765,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3823,7 +3823,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3879,7 +3879,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3935,7 +3935,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4031,7 +4031,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4069,7 +4069,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4250,11 +4250,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4265,6 +4260,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="94">
   <si>
     <t>分组</t>
   </si>
@@ -302,81 +302,58 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行硬件资源环境申请
-平台金融模板制作
+    <t>包商银行农贷项目投产版本管理及上线文档准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目签名控件及无纸化前置测试
+    <t>编写包商银行农贷项目CFCA模块测试案例
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目CFCA模块整体送测
+    <t>包商银行手机银行项目云证通及签名验签服务器接口对接
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷、平台金融、手机银行项目会议
+    <t>包商银行平台金融签名签章工具包定制化开发需求评审
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目总体架构及网络环境会议（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行手机银行实施案例交流
-无纸化加F5负载均衡测试
+    <t>同包商银行数据中心确认生产环境及网络配置
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行上线文档准备
-确定农贷项目总体环境架构图
+    <t>包商银行无纸化生产环境检查
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目前置测试
-无纸化功能讲解
+    <t>包商银行投产文档准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行数据中心交流SVS部署
-手机银行云证通测试企业证书导入
+    <t>包商银行农贷项目云证通及签名验签服务器上线
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷业务上线准备工作
+    <t>配合包商银行平台金融、手机银行项目接口集成及农贷业务测试
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融定制化接口联调
+    <t>包商银行无纸化生产环境部署及验证
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>协助包商银行SVS上线及云证通证书导入
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助包商银行农贷项目CFCA系统上线--无纸化
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助包商银行无纸化及网络身份认证接口联调
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助包商银行农贷业务CFCA环境准备
+    <t>包商银行投产文档准备
+协助手机银行云证通流程梳理
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1075,13 +1052,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,21 +1083,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1513,8 +1490,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1523,19 +1500,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1550,41 +1527,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,10,30)</f>
-        <v>43038</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="39">
+        <f>DATE(2017,11,6)</f>
+        <v>43045</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43039</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>43046</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f>SUM(D2+1)</f>
-        <v>43040</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>43047</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43041</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>43048</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43042</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>43049</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43043</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>43050</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43044</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>43051</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1636,34 +1613,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>89</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1672,19 +1649,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1699,41 +1676,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>43045</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>43052</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f>D2+7</f>
-        <v>43046</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>43053</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f>F2+7</f>
-        <v>43047</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>43054</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f>H2+7</f>
-        <v>43048</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>43055</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f>J2+7</f>
-        <v>43049</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f ca="1">L2+7</f>
-        <v>43043</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f ca="1">N2+7</f>
-        <v>43044</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>43056</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f>L2+14</f>
+        <v>43064</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f>N2+14</f>
+        <v>43065</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1785,34 +1762,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1821,6 +1798,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1829,16 +1816,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,13 +1838,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1888,41 +1865,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2010,13 +1987,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2037,41 +2014,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2158,13 +2135,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2185,41 +2162,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2307,13 +2284,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2334,41 +2311,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2456,11 +2433,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2474,24 +2464,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,13 +2490,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2540,41 +2517,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2662,13 +2639,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2689,41 +2666,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2803,6 +2780,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2835,343 +3149,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3187,13 +3164,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3214,41 +3191,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3336,13 +3313,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3363,41 +3340,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3485,6 +3462,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3498,11 +3480,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3525,32 +3502,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3559,8 +3536,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3615,7 +3592,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3635,7 +3612,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3653,7 +3630,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3648,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3691,7 +3668,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3709,7 +3686,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3727,7 +3704,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3747,7 +3724,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3765,7 +3742,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +3780,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3823,7 +3800,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3841,7 +3818,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3859,7 +3836,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3879,7 +3856,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3897,7 +3874,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3915,7 +3892,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3935,7 +3912,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3953,7 +3930,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +3988,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4031,7 +4008,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4049,7 +4026,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4069,7 +4046,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4087,7 +4064,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4105,7 +4082,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4123,7 +4100,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4141,7 +4118,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4159,7 +4136,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4177,7 +4154,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4195,7 +4172,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4213,7 +4190,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4208,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4250,6 +4227,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4260,11 +4242,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>分组</t>
   </si>
@@ -302,58 +302,53 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目投产版本管理及上线文档准备
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写包商银行农贷项目CFCA模块测试案例
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行手机银行项目云证通及签名验签服务器接口对接
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行平台金融签名签章工具包定制化开发需求评审
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>同包商银行数据中心确认生产环境及网络配置
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行无纸化生产环境检查
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行投产文档准备
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>包商银行农贷项目云证通及签名验签服务器上线
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>配合包商银行平台金融、手机银行项目接口集成及农贷业务测试
+    <t>包商银行无纸化生产环境部署
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行无纸化生产环境部署及验证
+    <t>包商银行无纸化、SVS、云证通生产环境验证
+包商银行平台金融接口对接
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行投产文档准备
-协助手机银行云证通流程梳理
+    <t>包商银行平台金融无纸化接口对接
+平台金融网络身份认证接口对接
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合包商银行农贷项目投产演练
+配合手机银行、平台金融联调测试
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行农贷项目上线评审
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合包商银行农贷项目上线
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合包商银行农贷项目上线
+配合手机银行、平台金融联调测试
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行无纸化生产环境测试
+包商银行新增白名单IP事项
+远程支持焦作中旅银行新项目
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1052,14 +1047,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,15 +1078,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1490,8 +1485,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1500,19 +1495,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1527,41 +1522,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,11,6)</f>
-        <v>43045</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2017,11,13)</f>
+        <v>43052</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43046</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>43053</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43047</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>43054</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43048</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>43055</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43049</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>43056</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43050</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>43057</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43051</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>43058</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1613,7 +1608,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>83</v>
@@ -1622,25 +1617,25 @@
         <v>84</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>89</v>
-      </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1649,19 +1644,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1676,41 +1671,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43052</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>43059</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43053</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>43060</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43054</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>43061</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43055</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>43062</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43056</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>43063</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f>L2+14</f>
-        <v>43064</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>43071</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f>N2+14</f>
-        <v>43065</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>43072</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1762,34 +1757,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="I9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>91</v>
-      </c>
       <c r="J9" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1798,16 +1793,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1816,6 +1801,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,13 +1833,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1865,41 +1860,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1987,13 +1982,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2014,41 +2009,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2135,13 +2130,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2162,41 +2157,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2284,13 +2279,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2311,41 +2306,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2433,6 +2428,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2446,29 +2464,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2490,13 +2485,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2517,41 +2512,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2639,13 +2634,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2666,41 +2661,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2780,6 +2775,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2812,343 +3144,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3164,13 +3159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3191,41 +3186,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3313,13 +3308,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3340,41 +3335,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3462,11 +3457,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3480,6 +3470,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,32 +3497,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3536,8 +3531,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3592,7 +3587,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3612,7 +3607,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +3625,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3643,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3668,7 +3663,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3686,7 +3681,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3704,7 +3699,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3724,7 +3719,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3742,7 +3737,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3780,7 +3775,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3800,7 +3795,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3818,7 +3813,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3836,7 +3831,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3856,7 +3851,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3874,7 +3869,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3892,7 +3887,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3912,7 +3907,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3930,7 +3925,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3988,7 +3983,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4008,7 +4003,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4026,7 +4021,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4046,7 +4041,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4064,7 +4059,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4082,7 +4077,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4100,7 +4095,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4118,7 +4113,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4136,7 +4131,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4154,7 +4149,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4167,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4190,7 +4185,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4208,7 +4203,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4227,11 +4222,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4242,6 +4232,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
   <si>
     <t>分组</t>
   </si>
@@ -302,53 +302,62 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目云证通及签名验签服务器上线
+    <t>协调处理包商银行新增白名单IP事宜
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行无纸化生产环境部署
+    <t>协调处理包商银行新增白名单IP事宜
+支持天津农商银行业务流程梳理
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行无纸化、SVS、云证通生产环境验证
-包商银行平台金融接口对接
+    <t>包商银行平台金融项目实施
+农贷项目投产预评审
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融无纸化接口对接
-平台金融网络身份认证接口对接
+    <t>包商银行平台金融项目实施
+支持焦作中旅银行业务梳理
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>配合包商银行农贷项目投产演练
-配合手机银行、平台金融联调测试
+    <t>包商银行平台金融项目实施
+农贷项目投产评审
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行农贷项目上线评审
+    <t>包商银行平台金融项目实施
+支持焦作中旅银行接口联调
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>配合包商银行农贷项目上线
+    <t>包商银行农贷项目投产流程
+平台金融项目实施支持
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>配合包商银行农贷项目上线
-配合手机银行、平台金融联调测试
+    <t>配合包商银行农贷项目上线投产
+平台金融项目实施支持
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行无纸化生产环境测试
-包商银行新增白名单IP事项
-远程支持焦作中旅银行新项目
+    <t>配合包商银行农贷项目业务验证
+平台金融项目实施支持
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融实施
+协助手机银行联调测试
+包商银行农贷项目上线文档准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1047,13 +1056,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,21 +1087,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1494,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1495,19 +1504,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1522,41 +1531,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,11,13)</f>
-        <v>43052</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="39">
+        <f>DATE(2017,11,20)</f>
+        <v>43059</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43053</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>43060</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f>SUM(D2+1)</f>
-        <v>43054</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>43061</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43055</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>43062</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43056</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>43063</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43057</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>43064</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43058</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>43065</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1611,25 +1620,25 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>91</v>
@@ -1644,19 +1653,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1671,41 +1680,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>43059</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>43066</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f>D2+7</f>
-        <v>43060</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>43067</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f>F2+7</f>
-        <v>43061</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>43068</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f>H2+7</f>
-        <v>43062</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>43069</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f>J2+7</f>
-        <v>43063</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>43070</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f>L2+14</f>
-        <v>43071</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>43078</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f>N2+14</f>
-        <v>43072</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>43079</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1757,34 +1766,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1793,6 +1802,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1801,16 +1820,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1833,13 +1842,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1860,41 +1869,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1982,13 +1991,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2009,41 +2018,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2130,13 +2139,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2157,41 +2166,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2279,13 +2288,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2306,41 +2315,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2428,11 +2437,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2446,24 +2468,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2485,13 +2494,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2512,41 +2521,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2634,13 +2643,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2661,41 +2670,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2775,6 +2784,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2807,343 +3153,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3159,13 +3168,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3186,41 +3195,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3308,13 +3317,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3335,41 +3344,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3457,6 +3466,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3470,11 +3484,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3497,32 +3506,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3531,8 +3540,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3587,7 +3596,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3607,7 +3616,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3625,7 +3634,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3643,7 +3652,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3663,7 +3672,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3681,7 +3690,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3699,7 +3708,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3719,7 +3728,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3737,7 +3746,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3784,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3795,7 +3804,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3813,7 +3822,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3831,7 +3840,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3851,7 +3860,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3869,7 +3878,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3887,7 +3896,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3907,7 +3916,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3925,7 +3934,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3983,7 +3992,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4003,7 +4012,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4021,7 +4030,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4041,7 +4050,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4059,7 +4068,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4077,7 +4086,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4095,7 +4104,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4113,7 +4122,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4131,7 +4140,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4149,7 +4158,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4167,7 +4176,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4185,7 +4194,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4203,7 +4212,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4222,6 +4231,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4232,11 +4246,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="88">
   <si>
     <t>分组</t>
   </si>
@@ -302,62 +302,29 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>协调处理包商银行新增白名单IP事宜
+    <t>焦作中旅银行验收文档</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融项目实施
+配合包商银行农贷项目业务验证
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>协调处理包商银行新增白名单IP事宜
-支持天津农商银行业务流程梳理
+    <t>天津银行助学贷业务流程改造需求对接
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
-农贷项目投产预评审
+    <t>支持包商银行农贷项目修改缺陷
+包商银行平台金融项目接口联调
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
-支持焦作中旅银行业务梳理
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行平台金融项目实施
-农贷项目投产评审
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行平台金融项目实施
-支持焦作中旅银行接口联调
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行农贷项目投产流程
-平台金融项目实施支持
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合包商银行农贷项目上线投产
-平台金融项目实施支持
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合包商银行农贷项目业务验证
-平台金融项目实施支持
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行平台金融实施
-协助手机银行联调测试
-包商银行农贷项目上线文档准备
+    <t>包商银行平台金融&amp;手机银行项目实施
+对接天津银行助学贷业务流程改造
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1494,8 +1461,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1516,7 +1483,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1532,38 +1499,38 @@
         <v>59</v>
       </c>
       <c r="B2" s="39">
-        <f>DATE(2017,11,20)</f>
-        <v>43059</v>
+        <f>DATE(2017,11,27)</f>
+        <v>43066</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43060</v>
+        <v>43067</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39">
         <f>SUM(D2+1)</f>
-        <v>43061</v>
+        <v>43068</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43062</v>
+        <v>43069</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="K2" s="39"/>
       <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43064</v>
+        <v>43071</v>
       </c>
       <c r="M2" s="39"/>
       <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43065</v>
+        <v>43072</v>
       </c>
       <c r="O2" s="39"/>
     </row>
@@ -1620,31 +1587,31 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>89</v>
-      </c>
       <c r="I4" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1665,7 +1632,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1682,37 +1649,37 @@
       </c>
       <c r="B7" s="39">
         <f>B2+7</f>
-        <v>43066</v>
+        <v>43073</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39">
         <f>D2+7</f>
-        <v>43067</v>
+        <v>43074</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39">
         <f>F2+7</f>
-        <v>43068</v>
+        <v>43075</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="39">
         <f>H2+7</f>
-        <v>43069</v>
+        <v>43076</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39">
         <f>J2+7</f>
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39">
         <f>L2+14</f>
-        <v>43078</v>
+        <v>43085</v>
       </c>
       <c r="M7" s="39"/>
       <c r="N7" s="39">
         <f>N2+14</f>
-        <v>43079</v>
+        <v>43086</v>
       </c>
       <c r="O7" s="39"/>
     </row>
@@ -1761,39 +1728,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="70.5" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="91">
   <si>
     <t>分组</t>
   </si>
@@ -302,30 +302,44 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>焦作中旅银行验收文档</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>包商银行平台金融项目实施
-配合包商银行农贷项目业务验证
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行助学贷业务流程改造需求对接
+    <t>包商银行平台金融项目实施
+包商版本管理及质量管理会议
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>支持包商银行农贷项目修改缺陷
-包商银行平台金融项目接口联调
+    <t>包商银行平台金融项目实施
+配合包商银行手机银行项目联调
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融&amp;手机银行项目实施
-对接天津银行助学贷业务流程改造
+    <t>体检
+包商银行手机银行项目联调
 （外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行助学贷业务流程改造接口对接
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融&amp;手机银行项目联调测试
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融&amp;手机银行项目实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合天津银行助学贷业务联调测试</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,14 +1037,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1045,15 +1068,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1471,19 +1485,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1498,41 +1512,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,11,27)</f>
-        <v>43066</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2017,12,4)</f>
+        <v>43073</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43067</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>43074</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43068</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>43075</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43069</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>43076</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43070</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>43077</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43071</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>43078</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43072</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>43079</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1593,25 +1607,25 @@
         <v>84</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1620,19 +1634,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1647,41 +1661,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43073</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>43080</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43074</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>43081</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43075</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>43082</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43076</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>43083</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43077</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>43084</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f>L2+14</f>
-        <v>43085</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>43092</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f>N2+14</f>
-        <v>43086</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>43093</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1733,34 +1747,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1769,16 +1783,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1787,6 +1791,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1809,13 +1823,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1836,41 +1850,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1958,13 +1972,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1985,41 +1999,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2106,13 +2120,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2133,41 +2147,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2255,13 +2269,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2282,41 +2296,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2404,6 +2418,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2417,29 +2454,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2461,13 +2475,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2488,41 +2502,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2610,13 +2624,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2637,41 +2651,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2751,6 +2765,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2783,343 +3134,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3135,13 +3149,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3162,41 +3176,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3284,13 +3298,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3311,41 +3325,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3433,11 +3447,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3451,6 +3460,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3473,32 +3487,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3507,8 +3521,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3563,7 +3577,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3583,7 +3597,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3601,7 +3615,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3619,7 +3633,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3639,7 +3653,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3657,7 +3671,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3675,7 +3689,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3695,7 +3709,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3713,7 +3727,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3751,7 +3765,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3771,7 +3785,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3789,7 +3803,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3807,7 +3821,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3827,7 +3841,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3845,7 +3859,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3863,7 +3877,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3883,7 +3897,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3901,7 +3915,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3959,7 +3973,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3979,7 +3993,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3997,7 +4011,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4017,7 +4031,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4035,7 +4049,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4053,7 +4067,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4071,7 +4085,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4089,7 +4103,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4107,7 +4121,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4125,7 +4139,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4143,7 +4157,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4161,7 +4175,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4179,7 +4193,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4198,11 +4212,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4213,6 +4222,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>分组</t>
   </si>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>配合天津银行助学贷业务联调测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化工作汇报</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1037,13 +1041,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,21 +1072,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1476,7 +1480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1485,13 +1489,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1512,41 +1516,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,12,4)</f>
         <v>43073</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>43074</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f>SUM(D2+1)</f>
         <v>43075</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
         <v>43076</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
         <v>43077</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
         <v>43078</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
         <v>43079</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1634,13 +1638,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1661,41 +1665,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>43080</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f>D2+7</f>
         <v>43081</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f>F2+7</f>
         <v>43082</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f>H2+7</f>
         <v>43083</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f>J2+7</f>
         <v>43084</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f>L2+14</f>
         <v>43092</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f>N2+14</f>
         <v>43093</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1747,10 +1751,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>89</v>
@@ -1783,6 +1787,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1791,16 +1805,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,13 +1827,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1850,41 +1854,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1972,13 +1976,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1999,41 +2003,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2120,13 +2124,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2147,41 +2151,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2269,13 +2273,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2296,41 +2300,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2418,11 +2422,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2436,24 +2453,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2475,13 +2479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2502,41 +2506,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2624,13 +2628,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2651,41 +2655,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2765,6 +2769,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2797,343 +3138,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3149,13 +3153,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3176,41 +3180,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3298,13 +3302,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3325,41 +3329,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3447,6 +3451,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3460,11 +3469,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3487,32 +3491,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3521,8 +3525,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3577,7 +3581,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3597,7 +3601,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3615,7 +3619,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3633,7 +3637,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3653,7 +3657,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3689,7 +3693,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3709,7 +3713,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3727,7 +3731,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3765,7 +3769,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3785,7 +3789,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3803,7 +3807,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3821,7 +3825,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3841,7 +3845,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3877,7 +3881,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3897,7 +3901,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3915,7 +3919,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3973,7 +3977,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3993,7 +3997,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4011,7 +4015,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4031,7 +4035,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4049,7 +4053,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4067,7 +4071,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4085,7 +4089,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4103,7 +4107,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4121,7 +4125,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4139,7 +4143,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4193,7 +4197,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4212,6 +4216,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4222,11 +4231,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="90">
   <si>
     <t>分组</t>
   </si>
@@ -302,48 +302,38 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
+    <t>民生银行测试demo对接
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
-包商版本管理及质量管理会议
+    <t>编写民生银行demo需求文档
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
-配合包商银行手机银行项目联调
-（外出）</t>
+    <t>民生银行无纸化demo对接
+湖北天逸集团无纸化上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>体检
-包商银行手机银行项目联调
-（外出）</t>
+    <t>民生银行无纸化demo对接
+包商银行平台金融远程支持</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行助学贷业务流程改造接口对接
-（外出）</t>
+    <t>民生银行无纸化demo对接
+长沙银行无纸化一体机需求</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融&amp;手机银行项目联调测试
-（外出）</t>
+    <t>到开发部处理无纸化一体机需求（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融&amp;手机银行项目实施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合天津银行助学贷业务联调测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化工作汇报</t>
+    <t>民生银行无纸化demo支持
+长沙银行无纸化一体机需求
+包商银行平台金融项目支持</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1041,14 +1031,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,15 +1062,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1480,7 +1470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1489,19 +1479,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1516,41 +1506,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,12,4)</f>
-        <v>43073</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2017,12,11)</f>
+        <v>43080</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43074</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>43081</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43075</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>43082</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43076</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>43083</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43077</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>43084</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43078</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>43085</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43079</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>43086</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1605,22 +1595,22 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>87</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>87</v>
@@ -1638,19 +1628,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1665,41 +1655,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43080</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>43087</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43081</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>43088</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43082</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>43089</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43083</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>43090</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43084</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>43091</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f>L2+14</f>
-        <v>43092</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>43099</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f>N2+14</f>
-        <v>43093</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>43100</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1751,10 +1741,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>89</v>
@@ -1763,16 +1753,16 @@
         <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
         <v>89</v>
@@ -1787,16 +1777,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1805,6 +1785,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1827,13 +1817,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1854,41 +1844,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1976,13 +1966,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2003,41 +1993,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2124,13 +2114,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2151,41 +2141,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2273,13 +2263,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2300,41 +2290,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2422,6 +2412,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2435,29 +2448,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2479,13 +2469,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2506,41 +2496,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2628,13 +2618,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2655,41 +2645,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2769,6 +2759,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2801,343 +3128,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3153,13 +3143,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3180,41 +3170,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3302,13 +3292,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3329,41 +3319,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3451,11 +3441,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3469,6 +3454,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3491,32 +3481,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3525,8 +3515,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3581,7 +3571,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3601,7 +3591,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3619,7 +3609,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3637,7 +3627,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3657,7 +3647,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3675,7 +3665,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3693,7 +3683,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3713,7 +3703,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3731,7 +3721,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3769,7 +3759,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3789,7 +3779,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3807,7 +3797,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3825,7 +3815,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3845,7 +3835,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3863,7 +3853,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3881,7 +3871,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3901,7 +3891,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3919,7 +3909,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3977,7 +3967,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3997,7 +3987,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4015,7 +4005,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4035,7 +4025,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4053,7 +4043,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4071,7 +4061,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4089,7 +4079,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4107,7 +4097,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4125,7 +4115,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4143,7 +4133,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4151,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4179,7 +4169,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4197,7 +4187,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4216,11 +4206,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4231,6 +4216,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="86">
   <si>
     <t>分组</t>
   </si>
@@ -302,38 +302,20 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行测试demo对接
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写民生银行demo需求文档
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无纸化demo对接
-湖北天逸集团无纸化上线</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无纸化demo对接
-包商银行平台金融远程支持</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无纸化demo对接
-长沙银行无纸化一体机需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>到开发部处理无纸化一体机需求（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>民生银行无纸化demo支持
 长沙银行无纸化一体机需求
 包商银行平台金融项目支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融项目实施
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化一体机安装测试
+民生银行需求对接
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1031,13 +1013,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,21 +1044,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1470,7 +1452,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1479,19 +1461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1506,41 +1488,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,12,11)</f>
-        <v>43080</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="39">
+        <f>DATE(2017,12,18)</f>
+        <v>43087</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43081</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>43088</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f>SUM(D2+1)</f>
-        <v>43082</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>43089</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43083</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>43090</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43084</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>43091</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43085</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>43092</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43086</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>43093</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1592,34 +1574,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1628,19 +1610,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1655,41 +1637,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>43087</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>43094</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f>D2+7</f>
-        <v>43088</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>43095</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f>F2+7</f>
-        <v>43089</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>43096</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f>H2+7</f>
-        <v>43090</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>43097</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f>J2+7</f>
-        <v>43091</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>43098</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f>L2+14</f>
-        <v>43099</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>43106</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f>N2+14</f>
-        <v>43100</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>43107</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1741,34 +1723,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1777,6 +1759,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1785,16 +1777,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,13 +1799,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1844,41 +1826,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1966,13 +1948,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1993,41 +1975,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2114,13 +2096,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2141,41 +2123,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2263,13 +2245,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2290,41 +2272,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2412,11 +2394,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2430,24 +2425,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2469,13 +2451,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2496,41 +2478,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2618,13 +2600,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2645,41 +2627,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2759,6 +2741,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2791,343 +3110,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3143,13 +3125,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3170,41 +3152,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3292,13 +3274,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3319,41 +3301,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3441,6 +3423,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3454,11 +3441,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,32 +3463,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3515,8 +3497,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3553,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3591,7 +3573,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3591,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +3609,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3647,7 +3629,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3665,7 +3647,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3665,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3703,7 +3685,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3721,7 +3703,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3741,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3779,7 +3761,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3797,7 +3779,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3815,7 +3797,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3835,7 +3817,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +3835,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3871,7 +3853,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3891,7 +3873,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3909,7 +3891,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3967,7 +3949,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3987,7 +3969,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +3987,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4025,7 +4007,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4043,7 +4025,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4043,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4079,7 +4061,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4097,7 +4079,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4115,7 +4097,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4133,7 +4115,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4133,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4151,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4187,7 +4169,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4206,6 +4188,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4216,11 +4203,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="90">
   <si>
     <t>分组</t>
   </si>
@@ -308,14 +308,33 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
+    <t>民生银行无纸化demo支持
+长沙银行无纸化一体机测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行无纸化双机测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中软OA项目测试系统部署及调测
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化一体机安装测试
-民生银行需求对接
+    <t>中软OA项目测试系统部署及调测
+讲解系统使用流程
 （外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化demo支持
+长沙银行柜面无纸化支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行柜面无纸化支持
+天津银行助学贷二期业务上线支持</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1013,14 +1032,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1035,15 +1063,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1452,7 +1471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1461,19 +1480,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1488,41 +1507,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,12,18)</f>
-        <v>43087</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2017,12,25)</f>
+        <v>43094</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43088</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>43095</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43089</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>43096</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43090</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>43097</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43091</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>43098</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43092</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>43099</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43093</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>43100</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1592,16 +1611,16 @@
         <v>85</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1610,19 +1629,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1637,41 +1656,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43094</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>43101</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43095</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>43102</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43096</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>43103</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43097</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>43104</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43098</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>43105</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f>L2+14</f>
-        <v>43106</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>43113</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f>N2+14</f>
-        <v>43107</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>43114</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1722,29 +1741,25 @@
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
         <v>83</v>
@@ -1759,16 +1774,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1777,6 +1782,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,13 +1814,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1826,41 +1841,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1948,13 +1963,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1975,41 +1990,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2096,13 +2111,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2123,41 +2138,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2245,13 +2260,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2272,41 +2287,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2394,6 +2409,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2407,29 +2445,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,13 +2466,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2478,41 +2493,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2600,13 +2615,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2627,41 +2642,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2741,6 +2756,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2773,343 +3125,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3125,13 +3140,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3152,41 +3167,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3274,13 +3289,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3301,41 +3316,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3423,11 +3438,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3441,6 +3451,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3463,32 +3478,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3497,8 +3512,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3553,7 +3568,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3573,7 +3588,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3591,7 +3606,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3609,7 +3624,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3629,7 +3644,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3647,7 +3662,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3680,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3685,7 +3700,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3703,7 +3718,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3756,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3761,7 +3776,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3779,7 +3794,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3797,7 +3812,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3817,7 +3832,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3835,7 +3850,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3853,7 +3868,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3873,7 +3888,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3891,7 +3906,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3949,7 +3964,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3969,7 +3984,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3987,7 +4002,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4007,7 +4022,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4025,7 +4040,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4043,7 +4058,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4061,7 +4076,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4079,7 +4094,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4097,7 +4112,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4115,7 +4130,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4133,7 +4148,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4151,7 +4166,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4169,7 +4184,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4188,11 +4203,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4203,6 +4213,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
   <si>
     <t>分组</t>
   </si>
@@ -302,39 +302,50 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行无纸化demo支持
-长沙银行无纸化一体机需求
-包商银行平台金融项目支持</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无纸化demo支持
-长沙银行无纸化一体机测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙银行无纸化双机测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中软OA项目测试系统部署及调测
+    <t>民生银行可信电子签章方案汇报及技术交流
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中软OA项目测试系统部署及调测
-讲解系统使用流程
+    <t>民生银行无纸化demo交流及汇报
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行无纸化demo支持
-长沙银行柜面无纸化支持</t>
+    <t>无纸化4.0规划会议
+民生银行需求分析
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>长沙银行柜面无纸化支持
-天津银行助学贷二期业务上线支持</t>
+    <t>民生银行无纸化demo文档准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>述职汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写人行稽核无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化demo文档准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行可信电子签章方案汇报及评审
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融项目实施
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化demo进度跟踪
+包商银行平台金融项目一期上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1470,8 +1481,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1492,7 +1503,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1508,38 +1519,38 @@
         <v>59</v>
       </c>
       <c r="B2" s="41">
-        <f>DATE(2017,12,25)</f>
-        <v>43094</v>
+        <f>DATE(2018,1,8)</f>
+        <v>43108</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43095</v>
+        <v>43109</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43096</v>
+        <v>43110</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43097</v>
+        <v>43111</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43098</v>
+        <v>43112</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43099</v>
+        <v>43113</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43100</v>
+        <v>43114</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -1593,16 +1604,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>85</v>
@@ -1620,7 +1631,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1641,7 +1652,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1658,37 +1669,37 @@
       </c>
       <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43101</v>
+        <v>43115</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43102</v>
+        <v>43116</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43103</v>
+        <v>43117</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43104</v>
+        <v>43118</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43105</v>
+        <v>43119</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41">
         <f>L2+14</f>
-        <v>43113</v>
+        <v>43127</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41">
         <f>N2+14</f>
-        <v>43114</v>
+        <v>43128</v>
       </c>
       <c r="O7" s="41"/>
     </row>
@@ -1741,31 +1752,35 @@
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -14,12 +14,12 @@
     <sheet name="week24-25" sheetId="8" r:id="rId5"/>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="94">
   <si>
     <t>分组</t>
   </si>
@@ -302,50 +302,56 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行可信电子签章方案汇报及技术交流
+    <t>民生银行接口文档、界面文档等评审
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行无纸化demo交流及汇报
+    <t>亦庄开发部讨论民生银行接口需求及文档修改
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化4.0规划会议
-民生银行需求分析
+    <t>包商银行上线文档准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行无纸化demo文档准备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>述职汇报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写人行稽核无纸化方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无纸化demo文档准备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行可信电子签章方案汇报及评审
+    <t>民生银行文档评审及需求确认
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目实施
+    <t>包商银行生产上线环境及软件准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行无纸化demo进度跟踪
-包商银行平台金融项目一期上线</t>
+    <t>包商银行平台金融项目上线前软件及文档准备
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行需求文档准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津农商银行无纸化+云证通交流
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华融湘江银行无纸化项目实施
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行柜面无纸化项目交流
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行项目实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1043,13 +1049,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,21 +1080,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1481,8 +1487,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1491,19 +1497,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1518,41 +1524,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
-        <f>DATE(2018,1,8)</f>
-        <v>43108</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="B2" s="39">
+        <f>DATE(2018,1,15)</f>
+        <v>43115</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43109</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>43116</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f>SUM(D2+1)</f>
-        <v>43110</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>43117</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43111</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>43118</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43112</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>43119</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43113</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>43120</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43114</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>43121</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1604,34 +1610,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>88</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1667,41 +1673,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>43115</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>43122</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f>D2+7</f>
-        <v>43116</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>43123</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f>F2+7</f>
-        <v>43117</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>43124</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f>H2+7</f>
-        <v>43118</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>43125</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f>J2+7</f>
-        <v>43119</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>43126</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f>L2+14</f>
-        <v>43127</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>43134</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f>N2+14</f>
-        <v>43128</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>43135</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1753,22 +1759,22 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="G9" s="28" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>92</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>92</v>
@@ -1777,10 +1783,10 @@
         <v>92</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1789,6 +1795,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1797,16 +1813,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,13 +1835,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1856,41 +1862,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1978,13 +1984,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2005,41 +2011,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2126,13 +2132,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2153,41 +2159,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2275,13 +2281,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2302,41 +2308,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2424,11 +2430,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2442,24 +2461,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,13 +2487,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2508,41 +2514,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2630,13 +2636,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2657,41 +2663,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2771,6 +2777,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2803,343 +3146,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3155,13 +3161,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3182,41 +3188,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3304,13 +3310,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3331,41 +3337,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3453,6 +3459,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3466,11 +3477,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3493,32 +3499,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3527,8 +3533,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3583,7 +3589,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3603,7 +3609,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3621,7 +3627,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3639,7 +3645,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3659,7 +3665,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3677,7 +3683,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3701,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3715,7 +3721,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3733,7 +3739,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3771,7 +3777,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3791,7 +3797,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3809,7 +3815,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3827,7 +3833,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3847,7 +3853,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3865,7 +3871,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +3889,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3903,7 +3909,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3921,7 +3927,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3979,7 +3985,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3999,7 +4005,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4017,7 +4023,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4037,7 +4043,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4055,7 +4061,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4073,7 +4079,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4091,7 +4097,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4109,7 +4115,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4127,7 +4133,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4145,7 +4151,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4163,7 +4169,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4181,7 +4187,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4199,7 +4205,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4218,6 +4224,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4228,11 +4239,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>分组</t>
   </si>
@@ -302,37 +302,12 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行接口文档、界面文档等评审
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦庄开发部讨论民生银行接口需求及文档修改
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行上线文档准备
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行文档评审及需求确认
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>包商银行生产上线环境及软件准备
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行平台金融项目上线前软件及文档准备
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行需求文档准备</t>
+    <t>整理民生银行项目计划及人员安排</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -341,17 +316,32 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>华融湘江银行无纸化项目实施
+    <t>华融湘江银行电子印章交流
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>长沙银行柜面无纸化项目交流
+    <t>长沙银行柜面无纸化交流
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行项目实施</t>
+    <t>乘坐高铁返京
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行云证通及网络身份认证前置上线检查
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行进度跟踪及文档准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连农商银行无纸化实施
+包商银行云证通及网络身份认证上线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1049,14 +1039,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1071,15 +1070,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,8 +1477,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1497,19 +1487,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1524,41 +1514,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2018,1,15)</f>
-        <v>43115</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2018,1,22)</f>
+        <v>43122</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43116</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>43123</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43117</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>43124</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43118</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>43125</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43119</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>43126</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43120</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>43127</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43121</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>43128</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1610,34 +1600,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>85</v>
-      </c>
       <c r="J4" s="28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1646,19 +1636,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1673,41 +1663,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43122</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>43129</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43123</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>43130</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43124</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>43131</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43125</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>43132</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43126</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f>L2+14</f>
+        <v>43133</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f>L2+7</f>
         <v>43134</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f>N2+14</f>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f>N2+7</f>
         <v>43135</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1759,16 +1749,16 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>91</v>
@@ -1777,16 +1767,16 @@
         <v>91</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1795,16 +1785,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1813,6 +1793,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,13 +1825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1862,41 +1852,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1984,13 +1974,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2011,41 +2001,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2132,13 +2122,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2159,41 +2149,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2281,13 +2271,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2308,41 +2298,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2430,6 +2420,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2443,29 +2456,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,13 +2477,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2514,41 +2504,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2636,13 +2626,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2663,41 +2653,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2777,6 +2767,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2809,343 +3136,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3161,13 +3151,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3188,41 +3178,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3310,13 +3300,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3337,41 +3327,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3459,11 +3449,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3477,6 +3462,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3499,32 +3489,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3533,8 +3523,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3589,7 +3579,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3609,7 +3599,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3627,7 +3617,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3645,7 +3635,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3665,7 +3655,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3683,7 +3673,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3701,7 +3691,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3721,7 +3711,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3739,7 +3729,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3777,7 +3767,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3797,7 +3787,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3815,7 +3805,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3833,7 +3823,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3853,7 +3843,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3871,7 +3861,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3889,7 +3879,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3909,7 +3899,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3927,7 +3917,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3985,7 +3975,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4005,7 +3995,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4023,7 +4013,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4043,7 +4033,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4061,7 +4051,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4079,7 +4069,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4097,7 +4087,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4115,7 +4105,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4123,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4151,7 +4141,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4169,7 +4159,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4187,7 +4177,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4205,7 +4195,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4224,11 +4214,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4239,6 +4224,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="96">
   <si>
     <t>分组</t>
   </si>
@@ -302,46 +302,67 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行生产上线环境及软件准备
+    <t>无纸化例会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读大连农商银行项目文档
+编写华融湘江银行电子印章方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行手机银行项目上线文档编写
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>整理民生银行项目计划及人员安排</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津农商银行无纸化+云证通交流
+    <t>包商银行手机银行项目网络环境检查验证
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>华融湘江银行电子印章交流
+    <t>民生银行可信手写签章系统进度汇报
+dcms等产品开发实施规划
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>长沙银行柜面无纸化交流
+    <t>长沙银行柜面无纸化文档编写
+民生银行需求文档变更
+大连农商银行外出
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>乘坐高铁返京
+    <t>大连农商银行无纸化+云证通方案及相关产品介绍
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行云证通及网络身份认证前置上线检查
+    <t>大连农商银行无纸化系统环境部署
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行进度跟踪及文档准备</t>
+    <t>大连农商银行OCR私有云环境部署
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>人员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行可信手写签章系统及后续dcms等系统交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连农商银行无纸化实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>大连农商银行无纸化实施
-包商银行云证通及网络身份认证上线</t>
+民生银行项目开发进度跟踪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1477,8 +1498,8 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7:O7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1499,7 +1520,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1512,41 +1533,41 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41">
-        <f>DATE(2018,1,22)</f>
-        <v>43122</v>
+        <f>DATE(2018,1,29)</f>
+        <v>43129</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43123</v>
+        <v>43130</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43124</v>
+        <v>43131</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43125</v>
+        <v>43132</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43126</v>
+        <v>43133</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43127</v>
+        <v>43134</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43128</v>
+        <v>43135</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -1603,31 +1624,31 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1648,7 +1669,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1665,37 +1686,37 @@
       </c>
       <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43129</v>
+        <v>43136</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43131</v>
+        <v>43138</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43132</v>
+        <v>43139</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43133</v>
+        <v>43140</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41">
         <f>L2+7</f>
-        <v>43134</v>
+        <v>43141</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41">
         <f>N2+7</f>
-        <v>43135</v>
+        <v>43142</v>
       </c>
       <c r="O7" s="41"/>
     </row>
@@ -1749,34 +1770,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="91">
   <si>
     <t>分组</t>
   </si>
@@ -302,67 +302,40 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化例会</t>
+    <t>人员</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>阅读大连农商银行项目文档
-编写华融湘江银行电子印章方案</t>
+    <t>无纸化项目汇报会议
+PMP交流会议</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行手机银行项目上线文档编写
+    <t>更新民生银行需求文档</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司汇报会议暨年会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融项目需求讨论
+协助处理项目集成过程中问题
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>包商银行手机银行项目网络环境检查验证
-（外出）</t>
+    <t>远程支持大连农商银行、焦作中旅银行接口调测
+民生银行需求文档更新</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行可信手写签章系统进度汇报
-dcms等产品开发实施规划
-（外出）</t>
+    <t>远程支持大连农商银行、焦作中旅银行接口调测
+民生银行需求确认</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>长沙银行柜面无纸化文档编写
-民生银行需求文档变更
-大连农商银行外出
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连农商银行无纸化+云证通方案及相关产品介绍
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连农商银行无纸化系统环境部署
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连农商银行OCR私有云环境部署
-（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行可信手写签章系统及后续dcms等系统交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连农商银行无纸化实施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连农商银行无纸化实施
-民生银行项目开发进度跟踪</t>
+    <t>年假</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1060,13 +1033,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,21 +1064,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1508,19 +1481,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1533,43 +1506,43 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2018,1,29)</f>
-        <v>43129</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+        <v>83</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2018,2,5)</f>
+        <v>43136</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
-        <v>43130</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+        <v>43137</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f>SUM(D2+1)</f>
-        <v>43131</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+        <v>43138</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f>SUM(F2+1)</f>
-        <v>43132</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+        <v>43139</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43133</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+        <v>43140</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43134</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+        <v>43141</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43135</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>43142</v>
+      </c>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1621,13 +1594,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>86</v>
@@ -1642,13 +1615,13 @@
         <v>88</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>90</v>
-      </c>
       <c r="K4" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1657,19 +1630,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1684,41 +1657,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
-        <v>43136</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+        <v>43143</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f>D2+7</f>
-        <v>43137</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+        <v>43144</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f>F2+7</f>
-        <v>43138</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+        <v>43145</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f>H2+7</f>
-        <v>43139</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+        <v>43146</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f>J2+7</f>
-        <v>43140</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+        <v>43147</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f>L2+7</f>
-        <v>43141</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+        <v>43148</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f>N2+7</f>
-        <v>43142</v>
-      </c>
-      <c r="O7" s="41"/>
+        <v>43149</v>
+      </c>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1770,35 +1743,27 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>94</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -1806,6 +1771,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1814,16 +1789,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
@@ -1846,13 +1811,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1873,41 +1838,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1995,13 +1960,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2022,41 +1987,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2143,13 +2108,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2170,41 +2135,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="41"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2292,13 +2257,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2319,41 +2284,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2441,11 +2406,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2459,24 +2437,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,13 +2463,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2525,41 +2490,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -2647,13 +2612,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2674,41 +2639,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2788,6 +2753,343 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="39">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="39">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2820,343 +3122,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="41">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="41">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
@@ -3172,13 +3137,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3199,41 +3164,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -3321,13 +3286,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3348,41 +3313,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -3470,6 +3435,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3483,11 +3453,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3510,32 +3475,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3544,8 +3509,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3600,7 +3565,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3620,7 +3585,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3603,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3656,7 +3621,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3676,7 +3641,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3694,7 +3659,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3712,7 +3677,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3732,7 +3697,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3715,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +3753,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3808,7 +3773,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3826,7 +3791,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3844,7 +3809,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3864,7 +3829,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3882,7 +3847,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3900,7 +3865,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3920,7 +3885,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3938,7 +3903,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3996,7 +3961,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4016,7 +3981,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4034,7 +3999,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4054,7 +4019,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4072,7 +4037,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4090,7 +4055,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4108,7 +4073,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4126,7 +4091,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4109,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4162,7 +4127,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4180,7 +4145,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4198,7 +4163,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4181,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4235,6 +4200,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4245,11 +4215,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-张腾.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Project-Process-library\Weekly Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <sheet name="week24-25" sheetId="8" r:id="rId5"/>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>分组</t>
   </si>
@@ -306,43 +311,51 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化项目汇报会议
-PMP交流会议</t>
+    <t>民生银行入场交流
+远程支持大连农商银行集成
+远程支持焦作中旅移动营销集成</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>更新民生银行需求文档</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司汇报会议暨年会</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行平台金融项目需求讨论
-协助处理项目集成过程中问题
+    <t>协助包商银行网络身份认证梳理业务流程
+包商银行电子合同签署流程交流
 （外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>远程支持大连农商银行、焦作中旅银行接口调测
-民生银行需求文档更新</t>
+    <t>民生银行入场手续办理及开发环境软件部署
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>远程支持大连农商银行、焦作中旅银行接口调测
-民生银行需求确认</t>
+    <t>公司情况及产品培训</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>年假</t>
+    <t>带民生银行开发人员入场并熟悉民生银行客户端
+(外出)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行柜面无纸化交流
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行现场开发跟踪
+（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行柜面无纸化交流
+（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
@@ -1033,14 +1046,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,15 +1077,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1467,12 +1480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1481,19 +1494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1508,41 +1521,41 @@
       <c r="A2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2018,2,5)</f>
-        <v>43136</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2018,2,26)</f>
+        <v>43157</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>43137</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>43158</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f>SUM(D2+1)</f>
-        <v>43138</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>43159</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f>SUM(F2+1)</f>
-        <v>43139</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>43160</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="0">SUM(H2+1)</f>
-        <v>43140</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>43161</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="1">SUM(J2+1)</f>
-        <v>43141</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>43162</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="2">SUM(L2+1)</f>
-        <v>43142</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>43163</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1594,34 +1607,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="H4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1630,19 +1643,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1657,41 +1670,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>43143</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>43164</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f>D2+7</f>
-        <v>43144</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>43165</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f>F2+7</f>
-        <v>43145</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>43166</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f>H2+7</f>
-        <v>43146</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>43167</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f>J2+7</f>
-        <v>43147</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>43168</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f>L2+7</f>
-        <v>43148</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>43169</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f>N2+7</f>
-        <v>43149</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>43170</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -1743,27 +1756,35 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="K9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -1771,16 +1792,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1789,6 +1800,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1811,13 +1832,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1838,41 +1859,41 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <f>DATE(2017,7,17)</f>
         <v>42933</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
         <v>42934</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42935</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42936</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42937</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42938</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42939</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
@@ -1960,13 +1981,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1987,41 +2008,41 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
         <v>42940</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42941</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42942</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42943</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42944</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42945</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42946</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
@@ -2108,13 +2129,13 @@
       <c r="O9" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
@@ -2135,41 +2156,41 @@
       <c r="A14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <f>DATE(2017,7,24)</f>
         <v>42940</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
         <f>SUM(B14+1)</f>
         <v>42941</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41">
         <f t="shared" ref="F14" si="11">SUM(D14+1)</f>
         <v>42942</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <f t="shared" ref="H14" si="12">SUM(F14+1)</f>
         <v>42943</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="13">SUM(H14+1)</f>
         <v>42944</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="14">SUM(J14+1)</f>
         <v>42945</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41">
         <f t="shared" ref="N14" si="15">SUM(L14+1)</f>
         <v>42946</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="40"/>
@@ -2257,13 +2278,13 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1"/>
     <row r="18" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2284,41 +2305,41 @@
       <c r="A19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <f>B14+7</f>
         <v>42947</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41">
         <f t="shared" ref="D19" si="16">D14+7</f>
         <v>42948</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="17">F14+7</f>
         <v>42949</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <f t="shared" ref="H19" si="18">H14+7</f>
         <v>42950</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <f t="shared" ref="J19" si="19">J14+7</f>
         <v>42951</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41">
         <f t="shared" ref="L19" si="20">L14+7</f>
         <v>42952</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
         <f t="shared" ref="N19" si="21">N14+7</f>
         <v>42953</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
       <c r="A20" s="40"/>
@@ -2406,6 +2427,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -2419,11 +2463,331 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="41">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2437,24 +2801,19 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2463,19 +2822,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2490,84 +2849,84 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2576,34 +2935,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2612,19 +2971,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2639,84 +2998,84 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2725,34 +3084,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2785,13 +3144,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2800,19 +3159,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2827,84 +3186,84 @@
       <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="B2" s="41">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
+        <v>42899</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+        <v>42900</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
+        <v>42901</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+        <v>42902</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
+        <v>42903</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="39"/>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="35" t="s">
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2913,34 +3272,34 @@
         <v>60</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2949,19 +3308,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -2976,84 +3335,84 @@
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+        <v>42905</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+        <v>42906</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
+        <v>42907</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
+        <v>42908</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
+        <v>42909</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
+        <v>42910</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3062,34 +3421,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -3098,11 +3457,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3116,343 +3470,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9:K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="39">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3460,7 +3482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -3475,32 +3497,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3509,8 +3531,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3565,7 +3587,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3585,7 +3607,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3603,7 +3625,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3643,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3641,7 +3663,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -3659,7 +3681,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3677,7 +3699,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3697,7 +3719,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3715,7 +3737,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3753,7 +3775,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3773,7 +3795,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -3791,7 +3813,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3809,7 +3831,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3829,7 +3851,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3847,7 +3869,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3865,7 +3887,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3885,7 +3907,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3903,7 +3925,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3961,7 +3983,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3981,7 +4003,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3999,7 +4021,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4019,7 +4041,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -4037,7 +4059,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -4055,7 +4077,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4073,7 +4095,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4091,7 +4113,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4109,7 +4131,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4127,7 +4149,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +4167,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4163,7 +4185,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4181,7 +4203,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4200,11 +4222,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -4215,6 +4232,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
